--- a/_data/ni/ni0001/individueel_eindstand_dworp_123_0001.xlsx
+++ b/_data/ni/ni0001/individueel_eindstand_dworp_123_0001.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12840" activeTab="11"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="239">
   <si>
     <t>Jaar 1</t>
   </si>
@@ -154,84 +154,6 @@
     <t>4F</t>
   </si>
   <si>
-    <t>Roosdaal 1</t>
-  </si>
-  <si>
-    <t>Machelen 1</t>
-  </si>
-  <si>
-    <t>Hoboken 4</t>
-  </si>
-  <si>
-    <t>STM Mechelen 3</t>
-  </si>
-  <si>
-    <t>Mechelen 3</t>
-  </si>
-  <si>
-    <t>Humbeek 2</t>
-  </si>
-  <si>
-    <t>Brasschaat 3</t>
-  </si>
-  <si>
-    <t>Ruisbroek 1</t>
-  </si>
-  <si>
-    <t>Mons 3</t>
-  </si>
-  <si>
-    <t>CRE Charleroi 4</t>
-  </si>
-  <si>
-    <t>Liège 5</t>
-  </si>
-  <si>
-    <t>Carnières</t>
-  </si>
-  <si>
-    <t>Fontaine 1</t>
-  </si>
-  <si>
-    <t>Namur 2</t>
-  </si>
-  <si>
-    <t>Gazomat Gilly</t>
-  </si>
-  <si>
-    <t>Tournai 2</t>
-  </si>
-  <si>
-    <t>Soignies 2</t>
-  </si>
-  <si>
-    <t>Geraardsbergen 2</t>
-  </si>
-  <si>
-    <t>Lessines 1</t>
-  </si>
-  <si>
-    <t>Sint-Niklaaas 2</t>
-  </si>
-  <si>
-    <t>Zottegem 1</t>
-  </si>
-  <si>
-    <t>KGSRL Gent 7</t>
-  </si>
-  <si>
-    <t>Opwijk 1</t>
-  </si>
-  <si>
-    <t>Mercatel 2</t>
-  </si>
-  <si>
-    <t>Landegem 3</t>
-  </si>
-  <si>
-    <t>Wetteren 2</t>
-  </si>
-  <si>
     <t>228 Dworp 1</t>
   </si>
   <si>
@@ -277,33 +199,12 @@
     <t>Lemmens Pierre</t>
   </si>
   <si>
-    <t>Thiteca T</t>
-  </si>
-  <si>
-    <t>Stoyanofski A</t>
-  </si>
-  <si>
     <t>Uylenbroeck Roland</t>
   </si>
   <si>
     <t>Desmedt Jean Pierre</t>
   </si>
   <si>
-    <t>Lasne Waterloo 2</t>
-  </si>
-  <si>
-    <t>Baufays H</t>
-  </si>
-  <si>
-    <t>Dusart P</t>
-  </si>
-  <si>
-    <t>Baldan W</t>
-  </si>
-  <si>
-    <t>Leruitte V</t>
-  </si>
-  <si>
     <t>Ertveldt Pieter</t>
   </si>
   <si>
@@ -316,54 +217,15 @@
     <t>Matthys Kris</t>
   </si>
   <si>
-    <t>Ringoir G</t>
-  </si>
-  <si>
     <t>Vanderwaeren Serge</t>
   </si>
   <si>
-    <t>De Moyter T</t>
-  </si>
-  <si>
-    <t>De Moyter K</t>
-  </si>
-  <si>
-    <t>Lasne-Waterloo 2</t>
-  </si>
-  <si>
     <t>R1 ik heb er Lasne-Waterloo van gemaakt; Lasne-Wat is zo nietszeggend .</t>
   </si>
   <si>
-    <t>Plompen W</t>
-  </si>
-  <si>
-    <t>Gys W</t>
-  </si>
-  <si>
-    <t>Adams G</t>
-  </si>
-  <si>
-    <t>Van Camp K</t>
-  </si>
-  <si>
-    <t>Carnières 1</t>
-  </si>
-  <si>
     <t>Odeur Hubert</t>
   </si>
   <si>
-    <t>Demuynvck D</t>
-  </si>
-  <si>
-    <t>De Pauw D</t>
-  </si>
-  <si>
-    <t>Dehon E</t>
-  </si>
-  <si>
-    <t>Sint Niklaas 2</t>
-  </si>
-  <si>
     <t>Beniers Giovanni</t>
   </si>
   <si>
@@ -376,126 +238,18 @@
     <t>Todts Benny</t>
   </si>
   <si>
-    <t>Van Praet B</t>
-  </si>
-  <si>
-    <t>BOB Van Praet ex-Humbeek!?</t>
-  </si>
-  <si>
-    <t>Schnieders R</t>
-  </si>
-  <si>
-    <t>Van Sebroeck B</t>
-  </si>
-  <si>
-    <t>Van Vaek C</t>
-  </si>
-  <si>
     <t>Malfliet Koen</t>
   </si>
   <si>
-    <t>Fontaine 2</t>
-  </si>
-  <si>
-    <t>Russo B</t>
-  </si>
-  <si>
-    <t>Demat O</t>
-  </si>
-  <si>
-    <t>Ghorafi E</t>
-  </si>
-  <si>
-    <t>Majewski P</t>
-  </si>
-  <si>
-    <t>De Schepper B</t>
-  </si>
-  <si>
-    <t>Bossuyt H</t>
-  </si>
-  <si>
-    <t>Godefroidt T</t>
-  </si>
-  <si>
-    <t>Rapid Aalter 1</t>
-  </si>
-  <si>
-    <t>Baudts A</t>
-  </si>
-  <si>
-    <t>Delaere J</t>
-  </si>
-  <si>
     <t>Baudt Bernard</t>
   </si>
   <si>
     <t>Christiaens Mark</t>
   </si>
   <si>
-    <t>Dradon S</t>
-  </si>
-  <si>
     <t>Vandevoort Chantal</t>
   </si>
   <si>
-    <t>Debusschere H</t>
-  </si>
-  <si>
-    <t>De Vettor M</t>
-  </si>
-  <si>
-    <t>Baguet F</t>
-  </si>
-  <si>
-    <t>Fostiez P</t>
-  </si>
-  <si>
-    <t>n.m.</t>
-  </si>
-  <si>
-    <t>TSM Mechelen 3</t>
-  </si>
-  <si>
-    <t>Lesage C</t>
-  </si>
-  <si>
-    <t>Ducaert F</t>
-  </si>
-  <si>
-    <t>Verbruggen J</t>
-  </si>
-  <si>
-    <t>Poelmans J</t>
-  </si>
-  <si>
-    <t>elo?</t>
-  </si>
-  <si>
-    <t>Decellier P</t>
-  </si>
-  <si>
-    <t>Versailles M</t>
-  </si>
-  <si>
-    <t>Clerquin C</t>
-  </si>
-  <si>
-    <t>Gosseye C</t>
-  </si>
-  <si>
-    <t>Goethals P</t>
-  </si>
-  <si>
-    <t>Bunkens R</t>
-  </si>
-  <si>
-    <t>Vercruysse V</t>
-  </si>
-  <si>
-    <t>Usman M</t>
-  </si>
-  <si>
     <t>Roels Louis</t>
   </si>
   <si>
@@ -508,129 +262,24 @@
     <t>Van Steenwinckel Hugo</t>
   </si>
   <si>
-    <t>Van Peer C</t>
-  </si>
-  <si>
-    <t>Leloutre B</t>
-  </si>
-  <si>
-    <t>Sottiaux P</t>
-  </si>
-  <si>
     <t>de Kort Bruno</t>
   </si>
   <si>
     <t>ng</t>
   </si>
   <si>
-    <t>Dupont C</t>
-  </si>
-  <si>
-    <t>Van Driessche F</t>
-  </si>
-  <si>
     <t>Temmerman Hans</t>
   </si>
   <si>
-    <t>Watte S</t>
-  </si>
-  <si>
-    <t>Van Wassenhove M</t>
-  </si>
-  <si>
-    <t>Boey Temse</t>
-  </si>
-  <si>
-    <t>Boey Temse 3</t>
-  </si>
-  <si>
-    <t>Verbeke S</t>
-  </si>
-  <si>
-    <t>Klaassen A</t>
-  </si>
-  <si>
-    <t>Goverde R</t>
-  </si>
-  <si>
-    <t>Moernaut F</t>
-  </si>
-  <si>
-    <t>George M</t>
-  </si>
-  <si>
-    <t>Manne J</t>
-  </si>
-  <si>
-    <t>Van Cauwenbergh P</t>
-  </si>
-  <si>
-    <t>Stilman 5</t>
-  </si>
-  <si>
-    <t>Rapid Aalter 3</t>
-  </si>
-  <si>
     <t>R4 Rapid Aalter van gemaakt ipv Aalter</t>
   </si>
   <si>
     <t>R7 Rapid Aalter van gemaakt ipv Aalter</t>
   </si>
   <si>
-    <t>Michiels R</t>
-  </si>
-  <si>
-    <t>Van Hamme D</t>
-  </si>
-  <si>
-    <t>De Lathouwer M</t>
-  </si>
-  <si>
-    <t>Van Laecke G</t>
-  </si>
-  <si>
-    <t>Devriese J</t>
-  </si>
-  <si>
     <t>Nottebaert Peter</t>
   </si>
   <si>
-    <t>Van Hauthem E</t>
-  </si>
-  <si>
-    <t>Bloeyaert L</t>
-  </si>
-  <si>
-    <t>nm</t>
-  </si>
-  <si>
-    <t>Gazomat Gilly 1</t>
-  </si>
-  <si>
-    <t>Culot J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Van Bael P </t>
-  </si>
-  <si>
-    <t>Di Cosmo J</t>
-  </si>
-  <si>
-    <t>André P</t>
-  </si>
-  <si>
-    <t>Van Poucke P</t>
-  </si>
-  <si>
-    <t>Verbruggen S</t>
-  </si>
-  <si>
-    <t>Coppieters T</t>
-  </si>
-  <si>
-    <t>Van De Casteele F</t>
-  </si>
-  <si>
     <t>De Mol Patrick</t>
   </si>
   <si>
@@ -640,154 +289,460 @@
     <t>Cools Jos</t>
   </si>
   <si>
-    <t xml:space="preserve">Heylen </t>
-  </si>
-  <si>
-    <t>Audin T</t>
-  </si>
-  <si>
-    <t>Thiery C</t>
-  </si>
-  <si>
-    <t>Lui E</t>
-  </si>
-  <si>
-    <t>Micelli G</t>
-  </si>
-  <si>
     <t>Verhasselt Kris</t>
   </si>
   <si>
-    <t>De Coninck C</t>
-  </si>
-  <si>
-    <t>Bosschem Marc</t>
-  </si>
-  <si>
-    <t>Vrijudagh I</t>
-  </si>
-  <si>
     <t>De Hert Robert</t>
   </si>
   <si>
-    <t>Verelst W</t>
-  </si>
-  <si>
-    <t>Benoy J</t>
-  </si>
-  <si>
-    <t>Gaspart F</t>
-  </si>
-  <si>
-    <t>Broux M</t>
-  </si>
-  <si>
-    <t>Beaudot J</t>
-  </si>
-  <si>
-    <t>Charlier L</t>
-  </si>
-  <si>
-    <t>Vandenbussche T</t>
-  </si>
-  <si>
-    <t>Van De Velde K</t>
-  </si>
-  <si>
     <t>De Simpelaere Freddy</t>
   </si>
   <si>
-    <t>Baeten W</t>
-  </si>
-  <si>
     <t>omgeving Gent</t>
   </si>
   <si>
-    <t>KAOSK 5</t>
-  </si>
-  <si>
-    <t>Wijnants P</t>
-  </si>
-  <si>
-    <t>Matthijs L</t>
-  </si>
-  <si>
-    <t>Van Den Broeck J</t>
-  </si>
-  <si>
-    <t>Sunnerberg C</t>
-  </si>
-  <si>
-    <t>Ji Sang H</t>
-  </si>
-  <si>
-    <t>kan geen uitwedstrijd zijn; aangepast</t>
-  </si>
-  <si>
-    <t>Leus D</t>
-  </si>
-  <si>
-    <t>Dumont F</t>
-  </si>
-  <si>
-    <t>Van Houtte J</t>
-  </si>
-  <si>
-    <t>Hoffelinck J</t>
-  </si>
-  <si>
     <t>Ingelaere Frederic</t>
   </si>
   <si>
-    <t>Olense schaakkring?</t>
-  </si>
-  <si>
-    <t>stamnnummer 2739?</t>
-  </si>
-  <si>
-    <t>nu kring 135?</t>
-  </si>
-  <si>
-    <t>nu kring 701?</t>
-  </si>
-  <si>
-    <t>stamnnummer 15682???</t>
-  </si>
-  <si>
-    <t>nu kring 401?</t>
-  </si>
-  <si>
-    <t>stamnummer 23701?</t>
-  </si>
-  <si>
-    <t>R11   KAOSK = Olen?</t>
-  </si>
-  <si>
     <t>Windels Jan</t>
   </si>
   <si>
-    <t>ZWS Waregem 3</t>
-  </si>
-  <si>
     <t>ik heb een vage herinnering, het kan geweest zijn : zuid westvlaamse schaakkring</t>
   </si>
   <si>
     <t xml:space="preserve">R3 ik heb er ZWS Waregem van gemaakt; ZWS is zo nietszeggend; </t>
   </si>
   <si>
-    <t>MP nog te halveren</t>
-  </si>
-  <si>
     <t>bron: roze jaarverslag 2000-2001</t>
   </si>
   <si>
-    <t>WTTC Ukkel 3</t>
-  </si>
-  <si>
-    <t>WTCC Ukkel 3</t>
-  </si>
-  <si>
     <t>R11 speciaal opgezocht, mijn partij 739 zegt Ukkel. (Wol-Tib Chess Club, een opvolger en een voorloper van de andere namen)</t>
+  </si>
+  <si>
+    <t>Wijnants Peter</t>
+  </si>
+  <si>
+    <t>Van Den Broek Jef</t>
+  </si>
+  <si>
+    <t>Matthijs Luc</t>
+  </si>
+  <si>
+    <t>101 KAOSK 5</t>
+  </si>
+  <si>
+    <t>Sunnerberg Constantin</t>
+  </si>
+  <si>
+    <t>Collette Benjamin</t>
+  </si>
+  <si>
+    <t>Chokounian Ahmad</t>
+  </si>
+  <si>
+    <t>Ji Sang Ho</t>
+  </si>
+  <si>
+    <t>Leus Daniel</t>
+  </si>
+  <si>
+    <t>432 Wetteren 2</t>
+  </si>
+  <si>
+    <t>Dumont Freddy</t>
+  </si>
+  <si>
+    <t>Van Houtte Johan</t>
+  </si>
+  <si>
+    <t>Hoffelinck Jean-Marie junior</t>
+  </si>
+  <si>
+    <t>472 Mercatel 2</t>
+  </si>
+  <si>
+    <t>Vandenbussche Thibaut</t>
+  </si>
+  <si>
+    <t>Van De Velde Kristiaan</t>
+  </si>
+  <si>
+    <t>Baeten William</t>
+  </si>
+  <si>
+    <t>Gaspart Frédéric</t>
+  </si>
+  <si>
+    <t>Charlier Laurent</t>
+  </si>
+  <si>
+    <t>Broux Mani</t>
+  </si>
+  <si>
+    <t>Beaudot Jean-Claude</t>
+  </si>
+  <si>
+    <t>901 Namur 2</t>
+  </si>
+  <si>
+    <t>130 Hoboken 4</t>
+  </si>
+  <si>
+    <t>Benoy Jacobus</t>
+  </si>
+  <si>
+    <t>Van Bunderen Gert</t>
+  </si>
+  <si>
+    <t>Verelst Walter</t>
+  </si>
+  <si>
+    <t>240 Machelen 1</t>
+  </si>
+  <si>
+    <t>Heylen Bert</t>
+  </si>
+  <si>
+    <t>Audin Thierry</t>
+  </si>
+  <si>
+    <t>Thiery Christophe</t>
+  </si>
+  <si>
+    <t>Lui Eric</t>
+  </si>
+  <si>
+    <t>Micelli Gaetan</t>
+  </si>
+  <si>
+    <t>506 Mons 3</t>
+  </si>
+  <si>
+    <t>261 Opwijk 1</t>
+  </si>
+  <si>
+    <t>De Coninck Chris</t>
+  </si>
+  <si>
+    <t>Bosschem Mark</t>
+  </si>
+  <si>
+    <t>Vrijdagh Ilda</t>
+  </si>
+  <si>
+    <t>269 Roosdaal 1</t>
+  </si>
+  <si>
+    <t>Bloeyaert Lieven</t>
+  </si>
+  <si>
+    <t>Van Hauthem Erik</t>
+  </si>
+  <si>
+    <t>Devriese Johan</t>
+  </si>
+  <si>
+    <t>540 Gazomat Gilly 1</t>
+  </si>
+  <si>
+    <t>Culot Jean-François</t>
+  </si>
+  <si>
+    <t>Van Bael Pascal</t>
+  </si>
+  <si>
+    <t>Di Cosmo Johathan</t>
+  </si>
+  <si>
+    <t>André Patrick</t>
+  </si>
+  <si>
+    <t>430 Landegem 3</t>
+  </si>
+  <si>
+    <t>Van Poucke Piet</t>
+  </si>
+  <si>
+    <t>Verbruggen Samuel</t>
+  </si>
+  <si>
+    <t>Coppieters Tom</t>
+  </si>
+  <si>
+    <t>Van De Casteele Frederik</t>
+  </si>
+  <si>
+    <t>501 CRE Charleroi 4</t>
+  </si>
+  <si>
+    <t>Verbeke Steven</t>
+  </si>
+  <si>
+    <t>Moernaut Francis</t>
+  </si>
+  <si>
+    <t>Klaassen Anton</t>
+  </si>
+  <si>
+    <t>Goverde Ruud</t>
+  </si>
+  <si>
+    <t>George Michael</t>
+  </si>
+  <si>
+    <t>Manne Jean-Luc</t>
+  </si>
+  <si>
+    <t>Stilmant Thierry</t>
+  </si>
+  <si>
+    <t>Van Cauwenbergh Philippe</t>
+  </si>
+  <si>
+    <t>475 Rapid Aalter 3</t>
+  </si>
+  <si>
+    <t>Van Hamme Dries</t>
+  </si>
+  <si>
+    <t>De Lathouwer Marc</t>
+  </si>
+  <si>
+    <t>Van Laecke Greet</t>
+  </si>
+  <si>
+    <t>Michiels Rob</t>
+  </si>
+  <si>
+    <t>Van Peer Cedric-Johan</t>
+  </si>
+  <si>
+    <t>260 Humbeek 2</t>
+  </si>
+  <si>
+    <t>518 Soignies 2</t>
+  </si>
+  <si>
+    <t>462 Zottegem 1</t>
+  </si>
+  <si>
+    <t>Leloutre Bernard</t>
+  </si>
+  <si>
+    <t>Sottiaux Patrick</t>
+  </si>
+  <si>
+    <t>Dupont Claude</t>
+  </si>
+  <si>
+    <t>Anguix Exuperio</t>
+  </si>
+  <si>
+    <t>Van Driessche Filiep</t>
+  </si>
+  <si>
+    <t>Watté Stefaan</t>
+  </si>
+  <si>
+    <t>Van Wassenhove Marc</t>
+  </si>
+  <si>
+    <t>401 KGSRL Gent 7</t>
+  </si>
+  <si>
+    <t>521 Tournai 2</t>
+  </si>
+  <si>
+    <t>166 TSM Mechelen 3</t>
+  </si>
+  <si>
+    <t>Lesage Christiaan</t>
+  </si>
+  <si>
+    <t>Ducaert Frederik</t>
+  </si>
+  <si>
+    <t>Verbruggen Jean</t>
+  </si>
+  <si>
+    <t>Poelmans Jonas</t>
+  </si>
+  <si>
+    <t>Decellier Patrick</t>
+  </si>
+  <si>
+    <t>Versailles Marc</t>
+  </si>
+  <si>
+    <t>Clerquin Constant</t>
+  </si>
+  <si>
+    <t>Gosseye Christophe</t>
+  </si>
+  <si>
+    <t>Goethals Philip</t>
+  </si>
+  <si>
+    <t>Vercruysse Vincent</t>
+  </si>
+  <si>
+    <t>Usman Mohammed</t>
+  </si>
+  <si>
+    <t>Bunkens Rudi</t>
+  </si>
+  <si>
+    <t>475 Rapid Aalter 1</t>
+  </si>
+  <si>
+    <t>601 Liège 5</t>
+  </si>
+  <si>
+    <t>533 Lessines 1</t>
+  </si>
+  <si>
+    <t>Baudts Alexander</t>
+  </si>
+  <si>
+    <t>Delaere Jeroen</t>
+  </si>
+  <si>
+    <t>Dradon Sebastien</t>
+  </si>
+  <si>
+    <t>Debusschere Helmuth</t>
+  </si>
+  <si>
+    <t>De Vettor Maite</t>
+  </si>
+  <si>
+    <t>Masure Luc</t>
+  </si>
+  <si>
+    <t>Baguet Frédéric</t>
+  </si>
+  <si>
+    <t>Samray Thomas</t>
+  </si>
+  <si>
+    <t>Fostiez Pascal</t>
+  </si>
+  <si>
+    <t>114 Mechelen 3</t>
+  </si>
+  <si>
+    <t>313 ZWS Waregem 3</t>
+  </si>
+  <si>
+    <t>Van Praet Bob</t>
+  </si>
+  <si>
+    <t>Schnieders Rik</t>
+  </si>
+  <si>
+    <t>Van Sebroeck Bartel</t>
+  </si>
+  <si>
+    <t>Van Vaek Constant</t>
+  </si>
+  <si>
+    <t>Russo Bruno</t>
+  </si>
+  <si>
+    <t>Majewski Philippe</t>
+  </si>
+  <si>
+    <t>Demat Olivier</t>
+  </si>
+  <si>
+    <t>Ghorafi El Houcine</t>
+  </si>
+  <si>
+    <t>De Schepper Bart</t>
+  </si>
+  <si>
+    <t>Bossuyt Herman</t>
+  </si>
+  <si>
+    <t>Godefroidt Thierry</t>
+  </si>
+  <si>
+    <t>Bob Van Praet ex-Humbeek!</t>
+  </si>
+  <si>
+    <t>174 Brasschaat 3</t>
+  </si>
+  <si>
+    <t>505 Carnières 1</t>
+  </si>
+  <si>
+    <t>410 Sint-Niklaas 2</t>
+  </si>
+  <si>
+    <t>Plompen Wim</t>
+  </si>
+  <si>
+    <t>Gys Wilfried</t>
+  </si>
+  <si>
+    <t>Van Camp Koen</t>
+  </si>
+  <si>
+    <t>Adams Gert</t>
+  </si>
+  <si>
+    <t>Demuynck Daniel</t>
+  </si>
+  <si>
+    <t>De Pauw Damien</t>
+  </si>
+  <si>
+    <t>Dehon Emile</t>
+  </si>
+  <si>
+    <t>249 Ruisbroek 1</t>
+  </si>
+  <si>
+    <t>951 Lasne-Waterloo 2</t>
+  </si>
+  <si>
+    <t>418 Geraardsbergen 2</t>
+  </si>
+  <si>
+    <t>Thiteca Thierry</t>
+  </si>
+  <si>
+    <t>Stoyanofski Alexandre</t>
+  </si>
+  <si>
+    <t>Baufays Hugues</t>
+  </si>
+  <si>
+    <t>Dusart Philippe</t>
+  </si>
+  <si>
+    <t>Baldan Walter Pietro</t>
+  </si>
+  <si>
+    <t>Leruitte Vincent</t>
+  </si>
+  <si>
+    <t>Ringoir Guy</t>
+  </si>
+  <si>
+    <t>De Moyer Tijl</t>
+  </si>
+  <si>
+    <t>De Moyer Karel</t>
+  </si>
+  <si>
+    <t>514 Fontaine 1</t>
+  </si>
+  <si>
+    <t>143 Boey Temse 3</t>
+  </si>
+  <si>
+    <t>244 WTTC Ukkel 3</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1350,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1580,21 +1535,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1"/>
     <cellStyle name="Standaard_Blad2" xfId="2"/>
   </cellStyles>
@@ -1609,9 +1552,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1649,7 +1592,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1719,7 +1662,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1893,11 +1836,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1961,7 +1902,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="D9" s="69" t="s">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="E9" s="69"/>
       <c r="F9" s="69"/>
@@ -1971,24 +1912,18 @@
         <v>39</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="E12" s="69"/>
       <c r="F12" s="69"/>
       <c r="G12" s="69"/>
     </row>
-    <row r="13" spans="1:10">
-      <c r="D13" s="70" t="s">
-        <v>244</v>
-      </c>
-      <c r="E13" s="68"/>
-    </row>
     <row r="16" spans="1:10">
       <c r="C16" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="E16" s="69"/>
       <c r="F16" s="69"/>
@@ -1999,7 +1934,7 @@
     </row>
     <row r="17" spans="3:19">
       <c r="D17" s="69" t="s">
-        <v>253</v>
+        <v>96</v>
       </c>
       <c r="E17" s="69"/>
       <c r="F17" s="69"/>
@@ -2018,7 +1953,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>248</v>
+        <v>94</v>
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="69"/>
@@ -2027,7 +1962,7 @@
       <c r="I21" s="69"/>
       <c r="J21" s="69"/>
       <c r="K21" s="69" t="s">
-        <v>247</v>
+        <v>93</v>
       </c>
       <c r="L21" s="69"/>
       <c r="M21" s="69"/>
@@ -2040,17 +1975,11 @@
     </row>
     <row r="22" spans="3:19">
       <c r="D22" s="69" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="E22" s="69"/>
       <c r="F22" s="69"/>
       <c r="G22" s="69"/>
-    </row>
-    <row r="23" spans="3:19">
-      <c r="D23" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="E23" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2061,9 +1990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:J27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2096,21 +2023,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -2148,9 +2077,11 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>37044</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="D5" s="18">
         <v>2000</v>
@@ -2168,19 +2099,21 @@
         <v>43419</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="J5" s="18">
-        <v>1855</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>57011</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="D6" s="18">
         <v>1894</v>
@@ -2198,19 +2131,21 @@
         <v>353</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="J6" s="18">
-        <v>1851</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>8664</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>203</v>
+        <v>86</v>
       </c>
       <c r="D7" s="18">
         <v>1730</v>
@@ -2228,19 +2163,21 @@
         <v>26816</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="J7" s="18">
-        <v>1789</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>53767</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="D8" s="18">
         <v>1660</v>
@@ -2258,10 +2195,10 @@
         <v>48097</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="J8" s="18">
-        <v>1727</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2316,7 +2253,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1805.5</v>
+        <v>1818.5</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -2325,21 +2262,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -2377,9 +2316,11 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>81949</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="D15" s="18">
         <v>1946</v>
@@ -2397,19 +2338,21 @@
         <v>43419</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="J15" s="18">
-        <v>1772</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>67253</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="D16" s="18">
         <v>1915</v>
@@ -2427,19 +2370,21 @@
         <v>43346</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="J16" s="18">
-        <v>1605</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>81981</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="D17" s="18">
         <v>1906</v>
@@ -2457,19 +2402,21 @@
         <v>64327</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="J17" s="18">
-        <v>1552</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>78395</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="D18" s="18">
         <v>1925</v>
@@ -2487,7 +2434,7 @@
         <v>2259</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="J18" s="18">
         <v>1257</v>
@@ -2513,7 +2460,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v>1546.5</v>
+        <v>1544.5</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -2522,13 +2469,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2538,7 +2485,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -2576,9 +2523,11 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>34151</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>209</v>
+        <v>87</v>
       </c>
       <c r="D23" s="18">
         <v>1856</v>
@@ -2596,19 +2545,21 @@
         <v>20621</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="J23" s="18">
-        <v>2351</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>48194</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="D24" s="18">
         <v>1870</v>
@@ -2626,19 +2577,21 @@
         <v>2283</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="J24" s="18">
-        <v>1990</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>34126</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="D25" s="18">
         <v>1819</v>
@@ -2656,19 +2609,21 @@
         <v>76333</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="J25" s="18">
-        <v>1918</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>6173</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="D26" s="18">
         <v>1516</v>
@@ -2686,10 +2641,10 @@
         <v>76317</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="J26" s="18">
-        <v>1855</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2712,7 +2667,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v>2028.5</v>
+        <v>2015.25</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -2721,7 +2676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -2861,9 +2816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2896,11 +2849,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2910,7 +2865,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -2949,29 +2904,31 @@
         <v>1</v>
       </c>
       <c r="B5" s="19">
-        <v>353</v>
+        <v>43419</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D5" s="18">
-        <v>1851</v>
+        <v>1858</v>
       </c>
       <c r="E5" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19"/>
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="19">
+        <v>18686</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="J5" s="18">
-        <v>1947</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2979,29 +2936,31 @@
         <v>2</v>
       </c>
       <c r="B6" s="19">
-        <v>655</v>
+        <v>353</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D6" s="18">
-        <v>1827</v>
+        <v>1840</v>
       </c>
       <c r="E6" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="19">
+        <v>4626</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="J6" s="18">
-        <v>1768</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3009,54 +2968,64 @@
         <v>3</v>
       </c>
       <c r="B7" s="19">
-        <v>26816</v>
+        <v>655</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D7" s="18">
-        <v>1789</v>
+        <v>1767</v>
       </c>
       <c r="E7" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19"/>
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="19">
+        <v>7471</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="J7" s="18">
-        <v>1617</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>26816</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>55</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1797</v>
+      </c>
       <c r="E8" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="19"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>58165</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1617</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
@@ -3094,7 +3063,8 @@
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
-        <v>1805.5</v>
+        <f>IFERROR(AVERAGE(D7:D10),"")</f>
+        <v>1782</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -3109,7 +3079,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1777.3333333333333</v>
+        <v>1842.75</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -3118,11 +3088,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3132,7 +3104,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -3174,10 +3146,10 @@
         <v>9270</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D15" s="18">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="E15" s="10">
         <v>0</v>
@@ -3188,9 +3160,11 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>64297</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="J15" s="18">
         <v>1923</v>
@@ -3204,10 +3178,10 @@
         <v>43419</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D16" s="18">
-        <v>1772</v>
+        <v>1781</v>
       </c>
       <c r="E16" s="10">
         <v>0</v>
@@ -3218,9 +3192,11 @@
       <c r="G16" s="10">
         <v>1</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>82571</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>219</v>
+        <v>115</v>
       </c>
       <c r="J16" s="18">
         <v>1704</v>
@@ -3234,10 +3210,10 @@
         <v>48097</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D17" s="18">
-        <v>1727</v>
+        <v>1779</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
@@ -3248,9 +3224,11 @@
       <c r="G17" s="10">
         <v>0</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>64092</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="J17" s="18">
         <v>1503</v>
@@ -3264,10 +3242,10 @@
         <v>43346</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D18" s="18">
-        <v>1605</v>
+        <v>1594</v>
       </c>
       <c r="E18" s="12">
         <v>0</v>
@@ -3278,9 +3256,11 @@
       <c r="G18" s="12">
         <v>1</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>63037</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c r="J18" s="18">
         <v>1363</v>
@@ -3290,7 +3270,8 @@
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
-        <v>1546.5</v>
+        <f>IFERROR(AVERAGE(D15:D18),"")</f>
+        <v>1746.5</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -3314,13 +3295,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75">
+    <row r="21" spans="1:13">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3330,11 +3311,11 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="J21" s="1"/>
       <c r="L21" s="69" t="s">
-        <v>224</v>
+        <v>90</v>
       </c>
       <c r="M21" s="69"/>
     </row>
@@ -3376,10 +3357,10 @@
         <v>20621</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D23" s="18">
-        <v>2351</v>
+        <v>2337</v>
       </c>
       <c r="E23" s="10">
         <v>1</v>
@@ -3390,9 +3371,11 @@
       <c r="G23" s="10">
         <v>0</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>25836</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="J23" s="18">
         <v>1846</v>
@@ -3406,10 +3389,10 @@
         <v>2283</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D24" s="18">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="E24" s="10">
         <v>0.5</v>
@@ -3420,9 +3403,11 @@
       <c r="G24" s="10">
         <v>0.5</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>29122</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="J24" s="18">
         <v>1833</v>
@@ -3436,10 +3421,10 @@
         <v>76333</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D25" s="18">
-        <v>1918</v>
+        <v>1892</v>
       </c>
       <c r="E25" s="10">
         <v>0.5</v>
@@ -3450,9 +3435,11 @@
       <c r="G25" s="10">
         <v>0.5</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>16918</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="J25" s="18">
         <v>1810</v>
@@ -3466,10 +3453,10 @@
         <v>76317</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D26" s="18">
-        <v>1855</v>
+        <v>1848</v>
       </c>
       <c r="E26" s="12">
         <v>1</v>
@@ -3480,9 +3467,11 @@
       <c r="G26" s="12">
         <v>0</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>47040</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>223</v>
+        <v>113</v>
       </c>
       <c r="J26" s="18">
         <v>1763</v>
@@ -3492,7 +3481,8 @@
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16">
-        <v>2028.5</v>
+        <f>IFERROR(AVERAGE(D23:D26),"")</f>
+        <v>2015.25</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -3516,7 +3506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75">
+    <row r="29" spans="1:13">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -3654,11 +3644,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3675,7 +3663,7 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="25" t="s">
         <v>30</v>
       </c>
@@ -3686,37 +3674,32 @@
         <v>36975</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="19.5" thickBot="1">
+    <row r="2" spans="1:10" ht="19.5" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="L3" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -3745,19 +3728,16 @@
       <c r="J4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>49549</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>226</v>
+        <v>97</v>
       </c>
       <c r="D5" s="18">
         <v>1654</v>
@@ -3775,24 +3755,21 @@
         <v>353</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="J5" s="18">
-        <v>1851</v>
-      </c>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-    </row>
-    <row r="6" spans="1:16">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>2739</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="D6" s="18">
         <v>1634</v>
@@ -3810,28 +3787,21 @@
         <v>655</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="J6" s="18">
-        <v>1827</v>
-      </c>
-      <c r="L6" s="68" t="s">
-        <v>239</v>
-      </c>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68" t="s">
-        <v>238</v>
-      </c>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-    </row>
-    <row r="7" spans="1:16">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>37362</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>227</v>
+        <v>99</v>
       </c>
       <c r="D7" s="18">
         <v>1247</v>
@@ -3849,28 +3819,21 @@
         <v>31348</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="J7" s="18">
-        <v>1832</v>
-      </c>
-      <c r="L7" s="68" t="s">
-        <v>240</v>
-      </c>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68" t="s">
-        <v>241</v>
-      </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-    </row>
-    <row r="8" spans="1:16">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>25372</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="D8" s="18">
         <v>1114</v>
@@ -3888,22 +3851,13 @@
         <v>26816</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="J8" s="18">
-        <v>1789</v>
-      </c>
-      <c r="L8" s="68" t="s">
-        <v>242</v>
-      </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68" t="s">
-        <v>243</v>
-      </c>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-    </row>
-    <row r="9" spans="1:16">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -3919,7 +3873,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -3935,7 +3889,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
@@ -3954,34 +3908,37 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="16">
-        <v>1805.5</v>
+        <f>IFERROR(AVERAGE(J7:J10),"")</f>
+        <v>1799</v>
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:16" ht="19.5" thickBot="1">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -4011,13 +3968,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:10">
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>74349</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="D15" s="18">
         <v>2078</v>
@@ -4035,21 +3994,25 @@
         <v>76325</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="J15" s="18">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>65544</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>102</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1915</v>
+      </c>
       <c r="E16" s="10">
         <v>1</v>
       </c>
@@ -4059,21 +4022,29 @@
       <c r="G16" s="10">
         <v>0</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>9954</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1798</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>25844</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>103</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1915</v>
+      </c>
       <c r="E17" s="10">
         <v>1</v>
       </c>
@@ -4083,22 +4054,28 @@
       <c r="G17" s="10">
         <v>0</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>43419</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>56</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1781</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>63886</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>230</v>
+        <v>104</v>
       </c>
       <c r="D18" s="18">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="E18" s="12">
         <v>1</v>
@@ -4113,10 +4090,10 @@
         <v>48097</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="J18" s="18">
-        <v>1727</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -4124,7 +4101,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v>1923.5</v>
+        <v>1917.75</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -4138,7 +4115,8 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="16">
-        <v>1546.5</v>
+        <f>IFERROR(AVERAGE(J15:J18),"")</f>
+        <v>1798.25</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -4147,13 +4125,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -4163,7 +4141,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -4201,9 +4179,11 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>52060</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="D23" s="18">
         <v>1882</v>
@@ -4221,19 +4201,21 @@
         <v>20621</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="J23" s="18">
-        <v>2351</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>80748</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>233</v>
+        <v>107</v>
       </c>
       <c r="D24" s="18">
         <v>1861</v>
@@ -4251,19 +4233,21 @@
         <v>2283</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="J24" s="18">
-        <v>1990</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>21351</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="D25" s="18">
         <v>1859</v>
@@ -4281,19 +4265,21 @@
         <v>76333</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="J25" s="18">
-        <v>1918</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>43893</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>235</v>
+        <v>109</v>
       </c>
       <c r="D26" s="18">
         <v>1329</v>
@@ -4311,10 +4297,10 @@
         <v>76317</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="J26" s="18">
-        <v>1855</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -4336,7 +4322,8 @@
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="16">
-        <v>2028.5</v>
+        <f>IFERROR(AVERAGE(J23:J26),"")</f>
+        <v>2015.25</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -4345,7 +4332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -4485,9 +4472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ280"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4596,7 +4581,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>37</v>
@@ -4638,9 +4623,9 @@
         <f t="shared" ref="O4:O15" si="1">SUM(C4:N4)</f>
         <v>29.5</v>
       </c>
-      <c r="P4" s="72">
-        <f>SUM(S4:AD4)*2</f>
-        <v>18</v>
+      <c r="P4" s="43">
+        <f>SUM(S4:AD4)</f>
+        <v>9</v>
       </c>
       <c r="Q4" s="43">
         <f t="shared" ref="Q4:Q15" si="2">COUNT(C4:N4)</f>
@@ -4747,7 +4732,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="C5" s="41">
         <v>2</v>
@@ -4789,9 +4774,9 @@
         <f t="shared" si="1"/>
         <v>29.5</v>
       </c>
-      <c r="P5" s="72">
-        <f t="shared" ref="P5:P15" si="3">SUM(S5:AD5)*2</f>
-        <v>16</v>
+      <c r="P5" s="43">
+        <f t="shared" ref="P5:P14" si="3">SUM(S5:AD5)</f>
+        <v>8</v>
       </c>
       <c r="Q5" s="43">
         <f t="shared" si="2"/>
@@ -4898,7 +4883,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="C6" s="41">
         <v>2</v>
@@ -4940,9 +4925,9 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="P6" s="72">
+      <c r="P6" s="43">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="Q6" s="43">
         <f t="shared" si="2"/>
@@ -5049,7 +5034,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="C7" s="41">
         <v>1.5</v>
@@ -5091,9 +5076,9 @@
         <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
-      <c r="P7" s="72">
+      <c r="P7" s="43">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q7" s="43">
         <f t="shared" si="2"/>
@@ -5200,7 +5185,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="C8" s="41">
         <v>1.5</v>
@@ -5242,9 +5227,9 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="P8" s="72">
+      <c r="P8" s="43">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="Q8" s="43">
         <f t="shared" si="2"/>
@@ -5351,7 +5336,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="C9" s="41">
         <v>1</v>
@@ -5393,9 +5378,9 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="P9" s="72">
+      <c r="P9" s="43">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q9" s="43">
         <f t="shared" si="2"/>
@@ -5502,7 +5487,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="C10" s="41">
         <v>2.5</v>
@@ -5544,9 +5529,9 @@
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="P10" s="72">
+      <c r="P10" s="43">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="43">
         <f t="shared" si="2"/>
@@ -5653,7 +5638,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="C11" s="41">
         <v>1</v>
@@ -5695,9 +5680,9 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="P11" s="72">
+      <c r="P11" s="43">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q11" s="43">
         <f t="shared" si="2"/>
@@ -5804,7 +5789,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C12" s="41">
         <v>1</v>
@@ -5846,9 +5831,9 @@
         <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
-      <c r="P12" s="72">
+      <c r="P12" s="43">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q12" s="43">
         <f t="shared" si="2"/>
@@ -5955,7 +5940,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="C13" s="41">
         <v>1</v>
@@ -5997,9 +5982,9 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="P13" s="72">
+      <c r="P13" s="43">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q13" s="43">
         <f t="shared" si="2"/>
@@ -6106,7 +6091,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="C14" s="41">
         <v>0.5</v>
@@ -6148,9 +6133,9 @@
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
-      <c r="P14" s="72">
+      <c r="P14" s="43">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Q14" s="43">
         <f t="shared" si="2"/>
@@ -6256,8 +6241,8 @@
       <c r="A15" s="44">
         <v>12</v>
       </c>
-      <c r="B15" s="71" t="s">
-        <v>225</v>
+      <c r="B15" s="45" t="s">
+        <v>100</v>
       </c>
       <c r="C15" s="46">
         <v>0.5</v>
@@ -6299,9 +6284,9 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="P15" s="73">
-        <f t="shared" si="3"/>
-        <v>4</v>
+      <c r="P15" s="49">
+        <f t="shared" ref="P5:P15" si="4">SUM(S15:AD15)</f>
+        <v>2</v>
       </c>
       <c r="Q15" s="49">
         <f t="shared" si="2"/>
@@ -6428,51 +6413,51 @@
         <v>33</v>
       </c>
       <c r="C17" s="35">
-        <f t="shared" ref="C17" si="4">MATCH("XX",C18:C29,0)</f>
+        <f t="shared" ref="C17" si="5">MATCH("XX",C18:C29,0)</f>
         <v>1</v>
       </c>
       <c r="D17" s="35">
-        <f t="shared" ref="D17" si="5">MATCH("XX",D18:D29,0)</f>
+        <f t="shared" ref="D17" si="6">MATCH("XX",D18:D29,0)</f>
         <v>2</v>
       </c>
       <c r="E17" s="35">
-        <f t="shared" ref="E17" si="6">MATCH("XX",E18:E29,0)</f>
+        <f t="shared" ref="E17" si="7">MATCH("XX",E18:E29,0)</f>
         <v>3</v>
       </c>
       <c r="F17" s="35">
-        <f t="shared" ref="F17" si="7">MATCH("XX",F18:F29,0)</f>
+        <f t="shared" ref="F17" si="8">MATCH("XX",F18:F29,0)</f>
         <v>4</v>
       </c>
       <c r="G17" s="35">
-        <f t="shared" ref="G17" si="8">MATCH("XX",G18:G29,0)</f>
+        <f t="shared" ref="G17" si="9">MATCH("XX",G18:G29,0)</f>
         <v>5</v>
       </c>
       <c r="H17" s="35">
-        <f t="shared" ref="H17" si="9">MATCH("XX",H18:H29,0)</f>
+        <f t="shared" ref="H17" si="10">MATCH("XX",H18:H29,0)</f>
         <v>6</v>
       </c>
       <c r="I17" s="35">
-        <f t="shared" ref="I17" si="10">MATCH("XX",I18:I29,0)</f>
+        <f t="shared" ref="I17" si="11">MATCH("XX",I18:I29,0)</f>
         <v>7</v>
       </c>
       <c r="J17" s="35">
-        <f t="shared" ref="J17" si="11">MATCH("XX",J18:J29,0)</f>
+        <f t="shared" ref="J17" si="12">MATCH("XX",J18:J29,0)</f>
         <v>8</v>
       </c>
       <c r="K17" s="35">
-        <f t="shared" ref="K17" si="12">MATCH("XX",K18:K29,0)</f>
+        <f t="shared" ref="K17" si="13">MATCH("XX",K18:K29,0)</f>
         <v>9</v>
       </c>
       <c r="L17" s="35">
-        <f t="shared" ref="L17" si="13">MATCH("XX",L18:L29,0)</f>
+        <f t="shared" ref="L17" si="14">MATCH("XX",L18:L29,0)</f>
         <v>10</v>
       </c>
       <c r="M17" s="35">
-        <f t="shared" ref="M17" si="14">MATCH("XX",M18:M29,0)</f>
+        <f t="shared" ref="M17" si="15">MATCH("XX",M18:M29,0)</f>
         <v>11</v>
       </c>
       <c r="N17" s="35">
-        <f t="shared" ref="N17" si="15">MATCH("XX",N18:N29,0)</f>
+        <f t="shared" ref="N17" si="16">MATCH("XX",N18:N29,0)</f>
         <v>12</v>
       </c>
       <c r="O17" s="36" t="s">
@@ -6502,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>37</v>
@@ -6541,15 +6526,15 @@
         <v>2</v>
       </c>
       <c r="O18" s="42">
-        <f t="shared" ref="O18:O29" si="16">SUM(C18:N18)</f>
+        <f t="shared" ref="O18:O29" si="17">SUM(C18:N18)</f>
         <v>30.5</v>
       </c>
-      <c r="P18" s="72">
-        <f>SUM(S18:AD18)*2</f>
-        <v>19</v>
+      <c r="P18" s="43">
+        <f>SUM(S18:AD18)</f>
+        <v>9.5</v>
       </c>
       <c r="Q18" s="43">
-        <f t="shared" ref="Q18:Q29" si="17">COUNT(C18:N18)</f>
+        <f t="shared" ref="Q18:Q29" si="18">COUNT(C18:N18)</f>
         <v>11</v>
       </c>
       <c r="R18" s="52"/>
@@ -6653,7 +6638,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="C19" s="41">
         <v>1.5</v>
@@ -6692,15 +6677,15 @@
         <v>4</v>
       </c>
       <c r="O19" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>28.5</v>
       </c>
-      <c r="P19" s="72">
-        <f t="shared" ref="P19:P29" si="18">SUM(S19:AD19)*2</f>
-        <v>13</v>
+      <c r="P19" s="43">
+        <f t="shared" ref="P19:P28" si="19">SUM(S19:AD19)</f>
+        <v>6.5</v>
       </c>
       <c r="Q19" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
       <c r="R19" s="52"/>
@@ -6804,7 +6789,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="C20" s="41">
         <v>2</v>
@@ -6843,15 +6828,15 @@
         <v>1.5</v>
       </c>
       <c r="O20" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
-      <c r="P20" s="72">
+      <c r="P20" s="43">
+        <f t="shared" si="19"/>
+        <v>5.5</v>
+      </c>
+      <c r="Q20" s="43">
         <f t="shared" si="18"/>
-        <v>11</v>
-      </c>
-      <c r="Q20" s="43">
-        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="R20" s="52"/>
@@ -6955,7 +6940,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="C21" s="41">
         <v>1.5</v>
@@ -6994,15 +6979,15 @@
         <v>2.5</v>
       </c>
       <c r="O21" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>23.5</v>
       </c>
-      <c r="P21" s="72">
+      <c r="P21" s="43">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="Q21" s="43">
         <f t="shared" si="18"/>
-        <v>14</v>
-      </c>
-      <c r="Q21" s="43">
-        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="R21" s="52"/>
@@ -7106,7 +7091,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>54</v>
+        <v>236</v>
       </c>
       <c r="C22" s="41">
         <v>2</v>
@@ -7145,15 +7130,15 @@
         <v>2.5</v>
       </c>
       <c r="O22" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>21.5</v>
       </c>
-      <c r="P22" s="72">
+      <c r="P22" s="43">
+        <f t="shared" si="19"/>
+        <v>5.5</v>
+      </c>
+      <c r="Q22" s="43">
         <f t="shared" si="18"/>
-        <v>11</v>
-      </c>
-      <c r="Q22" s="43">
-        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="R22" s="52"/>
@@ -7257,7 +7242,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C23" s="41">
         <v>1</v>
@@ -7296,15 +7281,15 @@
         <v>2</v>
       </c>
       <c r="O23" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>21.5</v>
       </c>
-      <c r="P23" s="72">
+      <c r="P23" s="43">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="Q23" s="43">
         <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="Q23" s="43">
-        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="R23" s="52"/>
@@ -7408,7 +7393,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="C24" s="41">
         <v>1.5</v>
@@ -7447,15 +7432,15 @@
         <v>2.5</v>
       </c>
       <c r="O24" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
-      <c r="P24" s="72">
+      <c r="P24" s="43">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="Q24" s="43">
         <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="Q24" s="43">
-        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="R24" s="52"/>
@@ -7559,7 +7544,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="C25" s="41">
         <v>1</v>
@@ -7598,15 +7583,15 @@
         <v>2</v>
       </c>
       <c r="O25" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20.5</v>
       </c>
-      <c r="P25" s="72">
+      <c r="P25" s="43">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="Q25" s="43">
         <f t="shared" si="18"/>
-        <v>12</v>
-      </c>
-      <c r="Q25" s="43">
-        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="R25" s="52"/>
@@ -7710,7 +7695,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="C26" s="41">
         <v>1</v>
@@ -7749,15 +7734,15 @@
         <v>3.5</v>
       </c>
       <c r="O26" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20.5</v>
       </c>
-      <c r="P26" s="72">
+      <c r="P26" s="43">
+        <f t="shared" si="19"/>
+        <v>5.5</v>
+      </c>
+      <c r="Q26" s="43">
         <f t="shared" si="18"/>
-        <v>11</v>
-      </c>
-      <c r="Q26" s="43">
-        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="R26" s="52"/>
@@ -7861,7 +7846,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C27" s="41">
         <v>0</v>
@@ -7900,15 +7885,15 @@
         <v>2.5</v>
       </c>
       <c r="O27" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>18.5</v>
       </c>
-      <c r="P27" s="72">
+      <c r="P27" s="43">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="Q27" s="43">
         <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="Q27" s="43">
-        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="R27" s="52"/>
@@ -8012,7 +7997,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="C28" s="41">
         <v>0</v>
@@ -8051,15 +8036,15 @@
         <v>3.5</v>
       </c>
       <c r="O28" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>18.5</v>
       </c>
-      <c r="P28" s="72">
+      <c r="P28" s="43">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="Q28" s="43">
         <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="Q28" s="43">
-        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="R28" s="52"/>
@@ -8163,7 +8148,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="C29" s="46">
         <v>2</v>
@@ -8202,15 +8187,15 @@
         <v>37</v>
       </c>
       <c r="O29" s="48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>15.5</v>
       </c>
-      <c r="P29" s="73">
+      <c r="P29" s="49">
+        <f t="shared" ref="P19:P29" si="20">SUM(S29:AD29)</f>
+        <v>2.5</v>
+      </c>
+      <c r="Q29" s="49">
         <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="Q29" s="49">
-        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="R29" s="52"/>
@@ -8334,51 +8319,51 @@
         <v>33</v>
       </c>
       <c r="C31" s="35">
-        <f t="shared" ref="C31" si="19">MATCH("XX",C32:C43,0)</f>
+        <f t="shared" ref="C31" si="21">MATCH("XX",C32:C43,0)</f>
         <v>1</v>
       </c>
       <c r="D31" s="35">
-        <f t="shared" ref="D31" si="20">MATCH("XX",D32:D43,0)</f>
+        <f t="shared" ref="D31" si="22">MATCH("XX",D32:D43,0)</f>
         <v>2</v>
       </c>
       <c r="E31" s="35">
-        <f t="shared" ref="E31" si="21">MATCH("XX",E32:E43,0)</f>
+        <f t="shared" ref="E31" si="23">MATCH("XX",E32:E43,0)</f>
         <v>3</v>
       </c>
       <c r="F31" s="35">
-        <f t="shared" ref="F31" si="22">MATCH("XX",F32:F43,0)</f>
+        <f t="shared" ref="F31" si="24">MATCH("XX",F32:F43,0)</f>
         <v>4</v>
       </c>
       <c r="G31" s="35">
-        <f t="shared" ref="G31" si="23">MATCH("XX",G32:G43,0)</f>
+        <f t="shared" ref="G31" si="25">MATCH("XX",G32:G43,0)</f>
         <v>5</v>
       </c>
       <c r="H31" s="35">
-        <f t="shared" ref="H31" si="24">MATCH("XX",H32:H43,0)</f>
+        <f t="shared" ref="H31" si="26">MATCH("XX",H32:H43,0)</f>
         <v>6</v>
       </c>
       <c r="I31" s="35">
-        <f t="shared" ref="I31" si="25">MATCH("XX",I32:I43,0)</f>
+        <f t="shared" ref="I31" si="27">MATCH("XX",I32:I43,0)</f>
         <v>7</v>
       </c>
       <c r="J31" s="35">
-        <f t="shared" ref="J31" si="26">MATCH("XX",J32:J43,0)</f>
+        <f t="shared" ref="J31" si="28">MATCH("XX",J32:J43,0)</f>
         <v>8</v>
       </c>
       <c r="K31" s="35">
-        <f t="shared" ref="K31" si="27">MATCH("XX",K32:K43,0)</f>
+        <f t="shared" ref="K31" si="29">MATCH("XX",K32:K43,0)</f>
         <v>9</v>
       </c>
       <c r="L31" s="35">
-        <f t="shared" ref="L31" si="28">MATCH("XX",L32:L43,0)</f>
+        <f t="shared" ref="L31" si="30">MATCH("XX",L32:L43,0)</f>
         <v>10</v>
       </c>
       <c r="M31" s="35">
-        <f t="shared" ref="M31" si="29">MATCH("XX",M32:M43,0)</f>
+        <f t="shared" ref="M31" si="31">MATCH("XX",M32:M43,0)</f>
         <v>11</v>
       </c>
       <c r="N31" s="35">
-        <f t="shared" ref="N31" si="30">MATCH("XX",N32:N43,0)</f>
+        <f t="shared" ref="N31" si="32">MATCH("XX",N32:N43,0)</f>
         <v>12</v>
       </c>
       <c r="O31" s="36" t="s">
@@ -8408,7 +8393,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>37</v>
@@ -8447,15 +8432,15 @@
         <v>3</v>
       </c>
       <c r="O32" s="42">
-        <f t="shared" ref="O32:O43" si="31">SUM(C32:N32)</f>
+        <f t="shared" ref="O32:O43" si="33">SUM(C32:N32)</f>
         <v>29</v>
       </c>
-      <c r="P32" s="72">
-        <f>SUM(S32:AD32)*2</f>
-        <v>19</v>
+      <c r="P32" s="43">
+        <f>SUM(S32:AD32)</f>
+        <v>9.5</v>
       </c>
       <c r="Q32" s="43">
-        <f t="shared" ref="Q32:Q43" si="32">COUNT(C32:N32)</f>
+        <f t="shared" ref="Q32:Q43" si="34">COUNT(C32:N32)</f>
         <v>11</v>
       </c>
       <c r="R32" s="52"/>
@@ -8559,7 +8544,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>59</v>
+        <v>226</v>
       </c>
       <c r="C33" s="41">
         <v>1.5</v>
@@ -8598,15 +8583,15 @@
         <v>4</v>
       </c>
       <c r="O33" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>29</v>
       </c>
-      <c r="P33" s="72">
-        <f t="shared" ref="P33:P43" si="33">SUM(S33:AD33)*2</f>
-        <v>15</v>
+      <c r="P33" s="43">
+        <f t="shared" ref="P33:P43" si="35">SUM(S33:AD33)</f>
+        <v>7.5</v>
       </c>
       <c r="Q33" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="R33" s="52"/>
@@ -8710,7 +8695,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C34" s="41">
         <v>2</v>
@@ -8749,15 +8734,15 @@
         <v>3.5</v>
       </c>
       <c r="O34" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>28</v>
       </c>
-      <c r="P34" s="72">
-        <f t="shared" si="33"/>
-        <v>16</v>
+      <c r="P34" s="43">
+        <f t="shared" si="35"/>
+        <v>8</v>
       </c>
       <c r="Q34" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="R34" s="52"/>
@@ -8861,7 +8846,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C35" s="41">
         <v>2</v>
@@ -8900,15 +8885,15 @@
         <v>3</v>
       </c>
       <c r="O35" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>26.5</v>
       </c>
-      <c r="P35" s="72">
-        <f t="shared" si="33"/>
-        <v>13</v>
+      <c r="P35" s="43">
+        <f t="shared" si="35"/>
+        <v>6.5</v>
       </c>
       <c r="Q35" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="R35" s="52"/>
@@ -9012,7 +8997,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="C36" s="41">
         <v>1.5</v>
@@ -9051,15 +9036,15 @@
         <v>3</v>
       </c>
       <c r="O36" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>21</v>
       </c>
-      <c r="P36" s="72">
-        <f t="shared" si="33"/>
-        <v>10</v>
+      <c r="P36" s="43">
+        <f t="shared" si="35"/>
+        <v>5</v>
       </c>
       <c r="Q36" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="R36" s="52"/>
@@ -9163,7 +9148,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="C37" s="41">
         <v>1</v>
@@ -9202,15 +9187,15 @@
         <v>1.5</v>
       </c>
       <c r="O37" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>20</v>
       </c>
-      <c r="P37" s="72">
-        <f t="shared" si="33"/>
-        <v>10</v>
+      <c r="P37" s="43">
+        <f t="shared" si="35"/>
+        <v>5</v>
       </c>
       <c r="Q37" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="R37" s="52"/>
@@ -9314,7 +9299,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="C38" s="41">
         <v>1.5</v>
@@ -9353,15 +9338,15 @@
         <v>3</v>
       </c>
       <c r="O38" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>20</v>
       </c>
-      <c r="P38" s="72">
-        <f t="shared" si="33"/>
-        <v>7</v>
+      <c r="P38" s="43">
+        <f t="shared" si="35"/>
+        <v>3.5</v>
       </c>
       <c r="Q38" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="R38" s="52"/>
@@ -9465,7 +9450,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="C39" s="41">
         <v>1.5</v>
@@ -9504,15 +9489,15 @@
         <v>1</v>
       </c>
       <c r="O39" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>19.5</v>
       </c>
-      <c r="P39" s="72">
-        <f t="shared" si="33"/>
-        <v>8</v>
+      <c r="P39" s="43">
+        <f t="shared" si="35"/>
+        <v>4</v>
       </c>
       <c r="Q39" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="R39" s="52"/>
@@ -9616,7 +9601,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="C40" s="41">
         <v>0.5</v>
@@ -9655,15 +9640,15 @@
         <v>2.5</v>
       </c>
       <c r="O40" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>18.5</v>
       </c>
-      <c r="P40" s="72">
-        <f t="shared" si="33"/>
-        <v>11</v>
+      <c r="P40" s="43">
+        <f t="shared" si="35"/>
+        <v>5.5</v>
       </c>
       <c r="Q40" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="R40" s="52"/>
@@ -9767,7 +9752,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C41" s="41">
         <v>2</v>
@@ -9806,15 +9791,15 @@
         <v>1.5</v>
       </c>
       <c r="O41" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>18.5</v>
       </c>
-      <c r="P41" s="72">
-        <f t="shared" si="33"/>
-        <v>7</v>
+      <c r="P41" s="43">
+        <f t="shared" si="35"/>
+        <v>3.5</v>
       </c>
       <c r="Q41" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="R41" s="52"/>
@@ -9918,7 +9903,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="C42" s="41">
         <v>0.5</v>
@@ -9957,15 +9942,15 @@
         <v>2</v>
       </c>
       <c r="O42" s="42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>18</v>
       </c>
-      <c r="P42" s="72">
-        <f t="shared" si="33"/>
-        <v>9</v>
+      <c r="P42" s="43">
+        <f t="shared" si="35"/>
+        <v>4.5</v>
       </c>
       <c r="Q42" s="43">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="R42" s="52"/>
@@ -10069,7 +10054,7 @@
         <v>12</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C43" s="46">
         <v>1</v>
@@ -10108,15 +10093,15 @@
         <v>37</v>
       </c>
       <c r="O43" s="48">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>16</v>
       </c>
-      <c r="P43" s="73">
-        <f t="shared" si="33"/>
-        <v>7</v>
+      <c r="P43" s="49">
+        <f t="shared" si="35"/>
+        <v>3.5</v>
       </c>
       <c r="Q43" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="R43" s="52"/>
@@ -10240,51 +10225,51 @@
         <v>33</v>
       </c>
       <c r="C45" s="35">
-        <f t="shared" ref="C45" si="34">MATCH("XX",C46:C57,0)</f>
+        <f t="shared" ref="C45" si="36">MATCH("XX",C46:C57,0)</f>
         <v>1</v>
       </c>
       <c r="D45" s="35">
-        <f t="shared" ref="D45" si="35">MATCH("XX",D46:D57,0)</f>
+        <f t="shared" ref="D45" si="37">MATCH("XX",D46:D57,0)</f>
         <v>2</v>
       </c>
       <c r="E45" s="35">
-        <f t="shared" ref="E45" si="36">MATCH("XX",E46:E57,0)</f>
+        <f t="shared" ref="E45" si="38">MATCH("XX",E46:E57,0)</f>
         <v>3</v>
       </c>
       <c r="F45" s="35">
-        <f t="shared" ref="F45" si="37">MATCH("XX",F46:F57,0)</f>
+        <f t="shared" ref="F45" si="39">MATCH("XX",F46:F57,0)</f>
         <v>4</v>
       </c>
       <c r="G45" s="35">
-        <f t="shared" ref="G45" si="38">MATCH("XX",G46:G57,0)</f>
+        <f t="shared" ref="G45" si="40">MATCH("XX",G46:G57,0)</f>
         <v>5</v>
       </c>
       <c r="H45" s="35">
-        <f t="shared" ref="H45" si="39">MATCH("XX",H46:H57,0)</f>
+        <f t="shared" ref="H45" si="41">MATCH("XX",H46:H57,0)</f>
         <v>6</v>
       </c>
       <c r="I45" s="35">
-        <f t="shared" ref="I45" si="40">MATCH("XX",I46:I57,0)</f>
+        <f t="shared" ref="I45" si="42">MATCH("XX",I46:I57,0)</f>
         <v>7</v>
       </c>
       <c r="J45" s="35">
-        <f t="shared" ref="J45" si="41">MATCH("XX",J46:J57,0)</f>
+        <f t="shared" ref="J45" si="43">MATCH("XX",J46:J57,0)</f>
         <v>8</v>
       </c>
       <c r="K45" s="35">
-        <f t="shared" ref="K45" si="42">MATCH("XX",K46:K57,0)</f>
+        <f t="shared" ref="K45" si="44">MATCH("XX",K46:K57,0)</f>
         <v>9</v>
       </c>
       <c r="L45" s="35">
-        <f t="shared" ref="L45" si="43">MATCH("XX",L46:L57,0)</f>
+        <f t="shared" ref="L45" si="45">MATCH("XX",L46:L57,0)</f>
         <v>10</v>
       </c>
       <c r="M45" s="35">
-        <f t="shared" ref="M45" si="44">MATCH("XX",M46:M57,0)</f>
+        <f t="shared" ref="M45" si="46">MATCH("XX",M46:M57,0)</f>
         <v>11</v>
       </c>
       <c r="N45" s="35">
-        <f t="shared" ref="N45" si="45">MATCH("XX",N46:N57,0)</f>
+        <f t="shared" ref="N45" si="47">MATCH("XX",N46:N57,0)</f>
         <v>12</v>
       </c>
       <c r="O45" s="36" t="s">
@@ -10329,7 +10314,7 @@
       <c r="M46" s="41"/>
       <c r="N46" s="41"/>
       <c r="O46" s="42">
-        <f t="shared" ref="O46:O57" si="46">SUM(C46:N46)</f>
+        <f t="shared" ref="O46:O57" si="48">SUM(C46:N46)</f>
         <v>0</v>
       </c>
       <c r="P46" s="43">
@@ -10337,7 +10322,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="43">
-        <f t="shared" ref="Q46:Q57" si="47">COUNT(C46:N46)</f>
+        <f t="shared" ref="Q46:Q57" si="49">COUNT(C46:N46)</f>
         <v>0</v>
       </c>
       <c r="R46" s="52"/>
@@ -10456,15 +10441,15 @@
       <c r="M47" s="41"/>
       <c r="N47" s="41"/>
       <c r="O47" s="42">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P47" s="43">
-        <f t="shared" ref="P47:P57" si="48">SUM(S47:AD47)*2</f>
+        <f t="shared" ref="P47:P57" si="50">SUM(S47:AD47)*2</f>
         <v>0</v>
       </c>
       <c r="Q47" s="43">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R47" s="52"/>
@@ -10583,15 +10568,15 @@
       <c r="M48" s="41"/>
       <c r="N48" s="41"/>
       <c r="O48" s="42">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P48" s="43">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q48" s="43">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R48" s="52"/>
@@ -10710,15 +10695,15 @@
       <c r="M49" s="41"/>
       <c r="N49" s="41"/>
       <c r="O49" s="42">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P49" s="43">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q49" s="43">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R49" s="52"/>
@@ -10837,15 +10822,15 @@
       <c r="M50" s="41"/>
       <c r="N50" s="41"/>
       <c r="O50" s="42">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P50" s="43">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q50" s="43">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R50" s="52"/>
@@ -10964,15 +10949,15 @@
       <c r="M51" s="41"/>
       <c r="N51" s="41"/>
       <c r="O51" s="42">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P51" s="43">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q51" s="43">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R51" s="52"/>
@@ -11091,15 +11076,15 @@
       <c r="M52" s="41"/>
       <c r="N52" s="41"/>
       <c r="O52" s="42">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P52" s="43">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q52" s="43">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R52" s="52"/>
@@ -11218,15 +11203,15 @@
       <c r="M53" s="41"/>
       <c r="N53" s="41"/>
       <c r="O53" s="42">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P53" s="43">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q53" s="43">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R53" s="52"/>
@@ -11345,15 +11330,15 @@
       <c r="M54" s="41"/>
       <c r="N54" s="41"/>
       <c r="O54" s="42">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P54" s="43">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q54" s="43">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R54" s="52"/>
@@ -11472,15 +11457,15 @@
       <c r="M55" s="41"/>
       <c r="N55" s="41"/>
       <c r="O55" s="42">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P55" s="43">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q55" s="43">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R55" s="52"/>
@@ -11599,15 +11584,15 @@
       </c>
       <c r="N56" s="41"/>
       <c r="O56" s="42">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P56" s="43">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q56" s="43">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R56" s="52"/>
@@ -11726,15 +11711,15 @@
         <v>37</v>
       </c>
       <c r="O57" s="48">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P57" s="49">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q57" s="49">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="R57" s="52"/>
@@ -14962,11 +14947,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -14999,11 +14982,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -15013,7 +14998,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -15055,7 +15040,7 @@
         <v>353</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D5" s="18">
         <v>1851</v>
@@ -15063,13 +15048,17 @@
       <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>25186</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>83</v>
+        <v>227</v>
       </c>
       <c r="J5" s="18">
         <v>2110</v>
@@ -15083,7 +15072,7 @@
         <v>655</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D6" s="18">
         <v>1827</v>
@@ -15091,13 +15080,17 @@
       <c r="E6" s="10">
         <v>0.5</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="10">
         <v>0.5</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>65935</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="J6" s="18">
         <v>1764</v>
@@ -15111,7 +15104,7 @@
         <v>26816</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D7" s="18">
         <v>1789</v>
@@ -15119,13 +15112,17 @@
       <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>33910</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="J7" s="18">
         <v>1669</v>
@@ -15139,7 +15136,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D8" s="18">
         <v>1605</v>
@@ -15147,13 +15144,17 @@
       <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>25917</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>84</v>
+        <v>228</v>
       </c>
       <c r="J8" s="18">
         <v>1479</v>
@@ -15220,11 +15221,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -15234,7 +15237,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>87</v>
+        <v>225</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -15276,7 +15279,7 @@
         <v>9270</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D15" s="18">
         <v>1838</v>
@@ -15290,9 +15293,11 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>87068</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="J15" s="18">
         <v>1879</v>
@@ -15306,7 +15311,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D16" s="18">
         <v>1772</v>
@@ -15320,15 +15325,17 @@
       <c r="G16" s="10">
         <v>0.5</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>19933</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>89</v>
+        <v>230</v>
       </c>
       <c r="J16" s="18">
         <v>1864</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -15336,7 +15343,7 @@
         <v>31348</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="D17" s="18">
         <v>1832</v>
@@ -15350,15 +15357,17 @@
       <c r="G17" s="10">
         <v>0.5</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>71242</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>90</v>
+        <v>231</v>
       </c>
       <c r="J17" s="18">
         <v>1726</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -15366,7 +15375,7 @@
         <v>48097</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D18" s="18">
         <v>1727</v>
@@ -15380,15 +15389,17 @@
       <c r="G18" s="12">
         <v>0</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>90492</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="J18" s="18">
         <v>1512</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
@@ -15412,18 +15423,18 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="19.5" thickBot="1">
+    <row r="20" spans="1:10" ht="19.5" thickBot="1">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -15433,17 +15444,11 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="L21" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-    </row>
-    <row r="22" spans="1:15">
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -15472,25 +15477,19 @@
       <c r="J22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-    </row>
-    <row r="23" spans="1:15">
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="5">
         <v>1</v>
       </c>
       <c r="B23" s="19">
-        <v>20621</v>
+        <v>46345</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="D23" s="18">
-        <v>2351</v>
+        <v>1959</v>
       </c>
       <c r="E23" s="10">
         <v>0.5</v>
@@ -15501,68 +15500,60 @@
       <c r="G23" s="10">
         <v>0.5</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>20621</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="J23" s="18">
-        <v>1959</v>
-      </c>
-      <c r="L23" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-    </row>
-    <row r="24" spans="1:15">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
       <c r="B24" s="19">
+        <v>10821</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1958</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="19">
         <v>2283</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="18">
+      <c r="I24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="18">
         <v>1990</v>
       </c>
-      <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J24" s="18">
-        <v>1958</v>
-      </c>
-      <c r="L24" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-    </row>
-    <row r="25" spans="1:15">
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
       <c r="B25" s="19">
-        <v>76333</v>
+        <v>32999</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="D25" s="18">
-        <v>1918</v>
+        <v>1693</v>
       </c>
       <c r="E25" s="10">
         <v>0.5</v>
@@ -15573,61 +15564,54 @@
       <c r="G25" s="10">
         <v>0.5</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>76333</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="J25" s="18">
-        <v>1693</v>
-      </c>
-      <c r="L25" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
       <c r="B26" s="19">
+        <v>56782</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1604</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19">
         <v>76317</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="18">
+      <c r="I26" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="18">
         <v>1855</v>
       </c>
-      <c r="E26" s="12">
-        <v>0</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="12">
-        <v>1</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="J26" s="18">
-        <v>1604</v>
-      </c>
-      <c r="L26" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-    </row>
-    <row r="27" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+    </row>
+    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16">
-        <v>2028.5</v>
+        <f>IFERROR(AVERAGE(D23:D26),"")</f>
+        <v>1803.5</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -15641,16 +15625,17 @@
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="16">
-        <v>1803.5</v>
+        <f>IFERROR(AVERAGE(J23:J26),"")</f>
+        <v>2028.5</v>
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="19.5" thickBot="1">
+    <row r="28" spans="1:10" ht="19.5" thickBot="1">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -15666,7 +15651,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:10">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -15696,7 +15681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:10">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -15712,7 +15697,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:10">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -15782,7 +15767,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15790,9 +15775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -15825,11 +15808,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -15839,7 +15824,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -15881,7 +15866,7 @@
         <v>353</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D5" s="18">
         <v>1851</v>
@@ -15889,13 +15874,17 @@
       <c r="E5" s="10">
         <v>0.5</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="10">
         <v>0.5</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>49778</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="J5" s="18">
         <v>1904</v>
@@ -15909,7 +15898,7 @@
         <v>655</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D6" s="18">
         <v>1827</v>
@@ -15917,13 +15906,17 @@
       <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>94404</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="J6" s="18">
         <v>1930</v>
@@ -15937,7 +15930,7 @@
         <v>26816</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D7" s="18">
         <v>1789</v>
@@ -15945,13 +15938,17 @@
       <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>56294</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="J7" s="18">
         <v>1886</v>
@@ -15965,7 +15962,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D8" s="18">
         <v>1605</v>
@@ -15973,13 +15970,17 @@
       <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>57789</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="J8" s="18">
         <v>1815</v>
@@ -16046,11 +16047,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -16060,7 +16063,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -16102,7 +16105,7 @@
         <v>9270</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D15" s="18">
         <v>1838</v>
@@ -16116,9 +16119,11 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>92002</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="J15" s="18">
         <v>2009</v>
@@ -16132,7 +16137,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D16" s="18">
         <v>1772</v>
@@ -16146,9 +16151,11 @@
       <c r="G16" s="10">
         <v>0</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>67440</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="J16" s="18">
         <v>1983</v>
@@ -16162,7 +16169,7 @@
         <v>31348</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="D17" s="18">
         <v>1832</v>
@@ -16176,9 +16183,11 @@
       <c r="G17" s="10">
         <v>0.5</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>69311</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="J17" s="18">
         <v>1982</v>
@@ -16192,7 +16201,7 @@
         <v>48097</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D18" s="18">
         <v>1727</v>
@@ -16206,9 +16215,11 @@
       <c r="G18" s="12">
         <v>0</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>55841</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="J18" s="18">
         <v>1400</v>
@@ -16243,13 +16254,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -16259,7 +16270,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -16301,7 +16312,7 @@
         <v>20621</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D23" s="18">
         <v>2351</v>
@@ -16315,9 +16326,11 @@
       <c r="G23" s="10">
         <v>0</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>73172</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="J23" s="18">
         <v>1995</v>
@@ -16331,7 +16344,7 @@
         <v>2283</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D24" s="18">
         <v>1990</v>
@@ -16345,9 +16358,11 @@
       <c r="G24" s="10">
         <v>0.5</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>55573</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="J24" s="18">
         <v>1791</v>
@@ -16361,7 +16376,7 @@
         <v>76333</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D25" s="18">
         <v>1918</v>
@@ -16375,9 +16390,11 @@
       <c r="G25" s="10">
         <v>0.5</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>26611</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="J25" s="18">
         <v>1779</v>
@@ -16391,7 +16408,7 @@
         <v>76317</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D26" s="18">
         <v>1855</v>
@@ -16405,9 +16422,11 @@
       <c r="G26" s="12">
         <v>1</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>54101</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="J26" s="18">
         <v>1483</v>
@@ -16442,7 +16461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -16582,9 +16601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21:M21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16617,21 +16634,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75">
+    <row r="3" spans="1:14">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -16669,9 +16688,11 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>96474</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c r="D5" s="18">
         <v>1878</v>
@@ -16679,7 +16700,9 @@
       <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="10">
         <v>0</v>
       </c>
@@ -16687,13 +16710,13 @@
         <v>655</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="J5" s="18">
         <v>1827</v>
       </c>
       <c r="L5" s="68" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="M5" s="68"/>
       <c r="N5" s="68"/>
@@ -16702,9 +16725,11 @@
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>11037</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="D6" s="18">
         <v>1839</v>
@@ -16722,7 +16747,7 @@
         <v>31348</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="J6" s="18">
         <v>1832</v>
@@ -16732,9 +16757,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>40746</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="D7" s="18">
         <v>1804</v>
@@ -16752,7 +16779,7 @@
         <v>43346</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="J7" s="18">
         <v>1605</v>
@@ -16762,9 +16789,11 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>12581</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="D8" s="18">
         <v>1791</v>
@@ -16772,7 +16801,9 @@
       <c r="E8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="10">
         <v>0</v>
       </c>
@@ -16780,7 +16811,7 @@
         <v>64327</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="J8" s="18">
         <v>1552</v>
@@ -16847,21 +16878,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75">
+    <row r="13" spans="1:14">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>122</v>
+        <v>236</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -16899,9 +16932,11 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>61948</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="D15" s="18">
         <v>1747</v>
@@ -16919,7 +16954,7 @@
         <v>9270</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J15" s="18">
         <v>1838</v>
@@ -16929,9 +16964,11 @@
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>94099</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="D16" s="18">
         <v>1732</v>
@@ -16949,7 +16986,7 @@
         <v>9954</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="J16" s="18">
         <v>1788</v>
@@ -16959,9 +16996,11 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>90638</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="D17" s="18">
         <v>1529</v>
@@ -16979,7 +17018,7 @@
         <v>43419</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="J17" s="18">
         <v>1772</v>
@@ -16989,9 +17028,11 @@
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>59951</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="D18" s="18">
         <v>1592</v>
@@ -17009,7 +17050,7 @@
         <v>48097</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="J18" s="18">
         <v>1727</v>
@@ -17044,13 +17085,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -17060,7 +17101,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -17098,9 +17139,11 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>876</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="D23" s="18">
         <v>2065</v>
@@ -17118,7 +17161,7 @@
         <v>20621</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="J23" s="18">
         <v>2351</v>
@@ -17128,9 +17171,11 @@
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>65978</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="D24" s="18">
         <v>1971</v>
@@ -17148,7 +17193,7 @@
         <v>2283</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="J24" s="18">
         <v>1990</v>
@@ -17158,9 +17203,11 @@
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>46680</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="D25" s="18">
         <v>1907</v>
@@ -17178,7 +17225,7 @@
         <v>76333</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="J25" s="18">
         <v>1918</v>
@@ -17188,9 +17235,11 @@
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>36897</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>245</v>
+        <v>92</v>
       </c>
       <c r="D26" s="18">
         <v>1880</v>
@@ -17208,7 +17257,7 @@
         <v>76317</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="J26" s="18">
         <v>1855</v>
@@ -17243,7 +17292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -17383,9 +17432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -17418,11 +17465,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -17432,7 +17481,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -17474,7 +17523,7 @@
         <v>353</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D5" s="18">
         <v>1851</v>
@@ -17482,13 +17531,17 @@
       <c r="E5" s="10">
         <v>0</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>45012</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="J5" s="18">
         <v>1824</v>
@@ -17502,7 +17555,7 @@
         <v>655</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D6" s="18">
         <v>1827</v>
@@ -17510,13 +17563,17 @@
       <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>44458</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="J6" s="18">
         <v>1804</v>
@@ -17530,7 +17587,7 @@
         <v>26816</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D7" s="18">
         <v>1789</v>
@@ -17538,13 +17595,17 @@
       <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>44989</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="J7" s="18">
         <v>1787</v>
@@ -17558,7 +17619,7 @@
         <v>43346</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D8" s="18">
         <v>1605</v>
@@ -17566,13 +17627,17 @@
       <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>47295</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="J8" s="18">
         <v>1751</v>
@@ -17639,11 +17704,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -17653,7 +17720,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -17695,7 +17762,7 @@
         <v>9270</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D15" s="18">
         <v>1838</v>
@@ -17709,9 +17776,11 @@
       <c r="G15" s="10">
         <v>0.5</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>82007</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="J15" s="18">
         <v>1831</v>
@@ -17725,7 +17794,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D16" s="18">
         <v>1772</v>
@@ -17739,9 +17808,11 @@
       <c r="G16" s="10">
         <v>0.5</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>95991</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="J16" s="18">
         <v>1820</v>
@@ -17755,7 +17826,7 @@
         <v>31348</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="D17" s="18">
         <v>1832</v>
@@ -17769,9 +17840,11 @@
       <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>396</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="J17" s="18">
         <v>1827</v>
@@ -17785,23 +17858,25 @@
         <v>48097</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D18" s="18">
         <v>1727</v>
       </c>
       <c r="E18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="12">
-        <v>1</v>
-      </c>
-      <c r="H18" s="19"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="19">
+        <v>95966</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="J18" s="18">
         <v>1708</v>
@@ -17816,13 +17891,13 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="16">
@@ -17836,13 +17911,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -17852,7 +17927,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -17891,105 +17966,135 @@
         <v>1</v>
       </c>
       <c r="B23" s="19">
-        <v>2283</v>
+        <v>20621</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D23" s="18">
-        <v>1990</v>
+        <v>2351</v>
       </c>
       <c r="E23" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H23" s="19"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="19">
+        <v>59811</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="J23" s="18">
-        <v>1841</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>2283</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1990</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="19">
+        <v>93335</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J24" s="18"/>
+        <v>197</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1841</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
       <c r="B25" s="19">
+        <v>76333</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1918</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="19">
+        <v>89681</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="5">
+        <v>4</v>
+      </c>
+      <c r="B26" s="19">
         <v>76317</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="18">
+      <c r="C26" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="18">
         <v>1855</v>
       </c>
-      <c r="E25" s="10">
-        <v>1</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="10">
-        <v>0</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="J25" s="18">
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19">
+        <v>93360</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" s="18">
         <v>1791</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A26" s="5">
-        <v>4</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v>1922.5</v>
+        <v>2028.5</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -18004,7 +18109,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v>1816</v>
+        <v>1839.5</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -18013,7 +18118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -18151,11 +18256,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:J17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -18172,7 +18275,7 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
@@ -18183,30 +18286,32 @@
         <v>36877</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.5" thickBot="1">
+    <row r="2" spans="1:10" ht="19.5" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -18236,13 +18341,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>2364</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="D5" s="18">
         <v>1872</v>
@@ -18250,7 +18357,9 @@
       <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="10">
         <v>0</v>
       </c>
@@ -18258,19 +18367,21 @@
         <v>353</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="J5" s="18">
         <v>1851</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>24597</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="D6" s="18">
         <v>1863</v>
@@ -18278,7 +18389,9 @@
       <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="10">
         <v>0</v>
       </c>
@@ -18286,19 +18399,21 @@
         <v>655</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="J6" s="18">
         <v>1827</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>23281</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="D7" s="18">
         <v>1818</v>
@@ -18306,7 +18421,9 @@
       <c r="E7" s="10">
         <v>0.5</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="10">
         <v>0.5</v>
       </c>
@@ -18314,27 +18431,31 @@
         <v>26816</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="J7" s="18">
         <v>1789</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>18589</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="10">
         <v>0</v>
       </c>
@@ -18342,16 +18463,13 @@
         <v>43346</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="J8" s="18">
         <v>1605</v>
       </c>
-      <c r="L8" s="69" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -18367,7 +18485,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -18383,7 +18501,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
@@ -18407,30 +18525,32 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="19.5" thickBot="1">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -18460,13 +18580,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:10">
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>84735</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="D15" s="18">
         <v>1854</v>
@@ -18484,19 +18606,21 @@
         <v>9270</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J15" s="18">
         <v>1838</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>89389</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="D16" s="18">
         <v>1707</v>
@@ -18514,7 +18638,7 @@
         <v>43419</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="J16" s="18">
         <v>1772</v>
@@ -18524,9 +18648,11 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>79596</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="D17" s="18">
         <v>1642</v>
@@ -18544,7 +18670,7 @@
         <v>31348</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="J17" s="18">
         <v>1832</v>
@@ -18554,9 +18680,11 @@
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>74161</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="D18" s="18">
         <v>1665</v>
@@ -18574,7 +18702,7 @@
         <v>48097</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="J18" s="18">
         <v>1727</v>
@@ -18609,13 +18737,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -18625,7 +18753,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -18663,9 +18791,11 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>38113</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="D23" s="18">
         <v>1878</v>
@@ -18683,7 +18813,7 @@
         <v>20621</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="J23" s="18">
         <v>2351</v>
@@ -18693,9 +18823,11 @@
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>29467</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="D24" s="18">
         <v>1870</v>
@@ -18713,7 +18845,7 @@
         <v>2283</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="J24" s="18">
         <v>1990</v>
@@ -18723,9 +18855,11 @@
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>11886</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="D25" s="18">
         <v>1842</v>
@@ -18743,7 +18877,7 @@
         <v>76333</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="J25" s="18">
         <v>1918</v>
@@ -18753,9 +18887,11 @@
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>45896</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="D26" s="18">
         <v>1784</v>
@@ -18773,7 +18909,7 @@
         <v>76317</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="J26" s="18">
         <v>1855</v>
@@ -18808,7 +18944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -18948,9 +19084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -18983,11 +19117,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -18997,7 +19133,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -19039,23 +19175,25 @@
         <v>43419</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="D5" s="18">
         <v>1855</v>
       </c>
       <c r="E5" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="19"/>
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="19">
+        <v>21733</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="J5" s="18">
         <v>1880</v>
@@ -19069,7 +19207,7 @@
         <v>353</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D6" s="18">
         <v>1851</v>
@@ -19083,9 +19221,11 @@
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>9342</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="J6" s="18">
         <v>1803</v>
@@ -19099,7 +19239,7 @@
         <v>655</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D7" s="18">
         <v>1827</v>
@@ -19113,9 +19253,11 @@
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>96491</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="J7" s="18">
         <v>1724</v>
@@ -19129,7 +19271,7 @@
         <v>26816</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D8" s="18">
         <v>1789</v>
@@ -19143,9 +19285,11 @@
       <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>51578</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J8" s="18">
         <v>1620</v>
@@ -19192,13 +19336,13 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="13">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="16">
@@ -19212,11 +19356,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -19226,7 +19372,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -19268,7 +19414,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D15" s="18">
         <v>1772</v>
@@ -19282,9 +19428,11 @@
       <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>92916</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J15" s="18">
         <v>1871</v>
@@ -19298,23 +19446,25 @@
         <v>48097</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D16" s="18">
         <v>1727</v>
       </c>
       <c r="E16" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="19"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>73865</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J16" s="18">
         <v>1676</v>
@@ -19328,7 +19478,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D17" s="18">
         <v>1605</v>
@@ -19342,9 +19492,11 @@
       <c r="G17" s="10">
         <v>0.5</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>78166</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J17" s="18">
         <v>1598</v>
@@ -19358,10 +19510,10 @@
         <v>41483</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="E18" s="12">
         <v>0</v>
@@ -19372,10 +19524,14 @@
       <c r="G18" s="12">
         <v>1</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="14"/>
+      <c r="H18" s="19">
+        <v>66621</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>169</v>
+      </c>
       <c r="J18" s="18" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -19387,13 +19543,13 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="13">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="16">
@@ -19407,13 +19563,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -19423,7 +19579,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -19465,7 +19621,7 @@
         <v>20621</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D23" s="18">
         <v>2351</v>
@@ -19479,9 +19635,11 @@
       <c r="G23" s="10">
         <v>0</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>4707</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J23" s="18">
         <v>1871</v>
@@ -19495,7 +19653,7 @@
         <v>2283</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D24" s="18">
         <v>1990</v>
@@ -19509,9 +19667,11 @@
       <c r="G24" s="10">
         <v>0.5</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>2640</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="J24" s="18">
         <v>1858</v>
@@ -19525,7 +19685,7 @@
         <v>76333</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D25" s="18">
         <v>1918</v>
@@ -19539,9 +19699,11 @@
       <c r="G25" s="10">
         <v>0.5</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>54500</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J25" s="18">
         <v>1847</v>
@@ -19555,7 +19717,7 @@
         <v>76317</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D26" s="18">
         <v>1855</v>
@@ -19569,9 +19731,11 @@
       <c r="G26" s="12">
         <v>0.5</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>3174</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J26" s="18">
         <v>1791</v>
@@ -19606,7 +19770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -19746,9 +19910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:J27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -19781,21 +19943,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -19833,9 +19997,11 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>45632</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="D5" s="18">
         <v>1921</v>
@@ -19853,7 +20019,7 @@
         <v>43419</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="J5" s="18">
         <v>1855</v>
@@ -19863,12 +20029,14 @@
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>3646</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1780</v>
+        <v>151</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="E6" s="10">
         <v>0.5</v>
@@ -19883,7 +20051,7 @@
         <v>353</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="J6" s="18">
         <v>1851</v>
@@ -19893,12 +20061,14 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>3824</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="18">
-        <v>1771</v>
+        <v>152</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -19913,7 +20083,7 @@
         <v>655</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="J7" s="18">
         <v>1827</v>
@@ -19923,9 +20093,11 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>48062</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="D8" s="18">
         <v>1825</v>
@@ -19943,7 +20115,7 @@
         <v>26816</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="J8" s="18">
         <v>1789</v>
@@ -19986,7 +20158,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v>1824.25</v>
+        <v>1873</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -20010,21 +20182,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -20062,9 +20236,11 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>72443</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="D15" s="18">
         <v>1886</v>
@@ -20082,7 +20258,7 @@
         <v>9270</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J15" s="18">
         <v>1838</v>
@@ -20092,9 +20268,11 @@
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>91201</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D16" s="18">
         <v>1861</v>
@@ -20112,7 +20290,7 @@
         <v>43419</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="J16" s="18">
         <v>1772</v>
@@ -20122,9 +20300,11 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>60569</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="D17" s="18">
         <v>1818</v>
@@ -20142,7 +20322,7 @@
         <v>48097</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="J17" s="18">
         <v>1727</v>
@@ -20152,9 +20332,11 @@
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>75990</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="D18" s="18">
         <v>1810</v>
@@ -20172,7 +20354,7 @@
         <v>43346</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="J18" s="18">
         <v>1605</v>
@@ -20207,13 +20389,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -20223,7 +20405,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -20261,9 +20443,11 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>36374</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="D23" s="18">
         <v>1884</v>
@@ -20281,7 +20465,7 @@
         <v>20621</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="J23" s="18">
         <v>2351</v>
@@ -20291,9 +20475,11 @@
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>43311</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="D24" s="18">
         <v>1692</v>
@@ -20311,7 +20497,7 @@
         <v>76333</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="J24" s="18">
         <v>1918</v>
@@ -20321,9 +20507,11 @@
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>47341</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="D25" s="18">
         <v>1783</v>
@@ -20341,7 +20529,7 @@
         <v>76317</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="J25" s="18">
         <v>1855</v>
@@ -20351,9 +20539,11 @@
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>43176</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="D26" s="18">
         <v>1666</v>
@@ -20371,7 +20561,7 @@
         <v>31348</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="J26" s="18">
         <v>1832</v>
@@ -20406,7 +20596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -20544,11 +20734,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -20565,7 +20753,7 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="25" t="s">
         <v>27</v>
       </c>
@@ -20576,16 +20764,18 @@
         <v>36926</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.5" thickBot="1">
+    <row r="2" spans="1:10" ht="19.5" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -20595,11 +20785,11 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -20629,7 +20819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -20637,10 +20827,10 @@
         <v>43419</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="D5" s="18">
-        <v>1855</v>
+        <v>1858</v>
       </c>
       <c r="E5" s="10">
         <v>0</v>
@@ -20651,15 +20841,17 @@
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>45888</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="J5" s="18">
         <v>2053</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -20667,10 +20859,10 @@
         <v>353</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D6" s="18">
-        <v>1851</v>
+        <v>1840</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -20681,15 +20873,17 @@
       <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>26751</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="J6" s="18">
         <v>1872</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -20697,10 +20891,10 @@
         <v>26816</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D7" s="18">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -20711,15 +20905,17 @@
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>26719</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="J7" s="18">
         <v>1761</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -20727,10 +20923,10 @@
         <v>48097</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D8" s="18">
-        <v>1727</v>
+        <v>1779</v>
       </c>
       <c r="E8" s="10">
         <v>0.5</v>
@@ -20741,18 +20937,17 @@
       <c r="G8" s="10">
         <v>0.5</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>26808</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="69" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>135</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -20768,7 +20963,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -20784,12 +20979,12 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v>1805.5</v>
+        <v>1818.5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -20804,20 +20999,22 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1895.3333333333333</v>
+        <v>1852.25</v>
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="19.5" thickBot="1">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75">
+    <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -20827,11 +21024,11 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -20861,7 +21058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:10">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -20869,10 +21066,10 @@
         <v>9270</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D15" s="18">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="E15" s="10">
         <v>0</v>
@@ -20883,15 +21080,17 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>85774</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="J15" s="18">
         <v>1918</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -20899,10 +21098,10 @@
         <v>43419</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D16" s="18">
-        <v>1772</v>
+        <v>1781</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -20913,9 +21112,11 @@
       <c r="G16" s="10">
         <v>0</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>85472</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="J16" s="18">
         <v>1719</v>
@@ -20929,10 +21130,10 @@
         <v>43346</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D17" s="18">
-        <v>1605</v>
+        <v>1594</v>
       </c>
       <c r="E17" s="10">
         <v>0</v>
@@ -20943,9 +21144,11 @@
       <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>90981</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="J17" s="18">
         <v>1642</v>
@@ -20959,7 +21162,7 @@
         <v>54658</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D18" s="18">
         <v>1450</v>
@@ -20973,9 +21176,11 @@
       <c r="G18" s="12">
         <v>0</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>66206</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="J18" s="18">
         <v>1193</v>
@@ -20986,7 +21191,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v>1666.25</v>
+        <v>1664.25</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -21010,13 +21215,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -21026,7 +21231,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -21068,10 +21273,10 @@
         <v>20621</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D23" s="18">
-        <v>2351</v>
+        <v>2337</v>
       </c>
       <c r="E23" s="10">
         <v>1</v>
@@ -21082,12 +21287,14 @@
       <c r="G23" s="10">
         <v>0</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>35360</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="J23" s="18">
-        <v>1837</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -21098,10 +21305,10 @@
         <v>2283</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D24" s="18">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="E24" s="10">
         <v>0</v>
@@ -21112,12 +21319,14 @@
       <c r="G24" s="10">
         <v>1</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>23434</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="J24" s="18">
-        <v>1876</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -21128,10 +21337,10 @@
         <v>76333</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D25" s="18">
-        <v>1918</v>
+        <v>1892</v>
       </c>
       <c r="E25" s="10">
         <v>1</v>
@@ -21142,12 +21351,14 @@
       <c r="G25" s="10">
         <v>0</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>16021</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="J25" s="18">
-        <v>1861</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
@@ -21158,10 +21369,10 @@
         <v>76317</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D26" s="18">
-        <v>1855</v>
+        <v>1848</v>
       </c>
       <c r="E26" s="12">
         <v>0</v>
@@ -21172,12 +21383,14 @@
       <c r="G26" s="12">
         <v>1</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>35521</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="J26" s="18">
-        <v>1777</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -21185,7 +21398,7 @@
       <c r="B27" s="3"/>
       <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v>2028.5</v>
+        <v>2015.25</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -21200,7 +21413,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v>1837.75</v>
+        <v>1839.25</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -21209,7 +21422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>

--- a/_data/ni/ni0001/individueel_eindstand_dworp_123_0001.xlsx
+++ b/_data/ni/ni0001/individueel_eindstand_dworp_123_0001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12840"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12840" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -328,9 +328,6 @@
     <t>Matthijs Luc</t>
   </si>
   <si>
-    <t>101 KAOSK 5</t>
-  </si>
-  <si>
     <t>Sunnerberg Constantin</t>
   </si>
   <si>
@@ -358,9 +355,6 @@
     <t>Hoffelinck Jean-Marie junior</t>
   </si>
   <si>
-    <t>472 Mercatel 2</t>
-  </si>
-  <si>
     <t>Vandenbussche Thibaut</t>
   </si>
   <si>
@@ -743,6 +737,12 @@
   </si>
   <si>
     <t>244 WTTC Ukkel 3</t>
+  </si>
+  <si>
+    <t>101 KAOSK Antwerpen 5</t>
+  </si>
+  <si>
+    <t>472 Mercatel Sint-Amandsberg 2</t>
   </si>
 </sst>
 </file>
@@ -1838,7 +1838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2029,7 +2029,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2177,7 +2177,7 @@
         <v>53767</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D8" s="18">
         <v>1660</v>
@@ -2268,7 +2268,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2320,7 +2320,7 @@
         <v>81949</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" s="18">
         <v>1946</v>
@@ -2352,7 +2352,7 @@
         <v>67253</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D16" s="18">
         <v>1915</v>
@@ -2384,7 +2384,7 @@
         <v>81981</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D17" s="18">
         <v>1906</v>
@@ -2416,7 +2416,7 @@
         <v>78395</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D18" s="18">
         <v>1925</v>
@@ -2475,7 +2475,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2559,7 +2559,7 @@
         <v>48194</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D24" s="18">
         <v>1870</v>
@@ -2591,7 +2591,7 @@
         <v>34126</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D25" s="18">
         <v>1819</v>
@@ -2623,7 +2623,7 @@
         <v>6173</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D26" s="18">
         <v>1516</v>
@@ -2865,7 +2865,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -2925,7 +2925,7 @@
         <v>18686</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J5" s="18">
         <v>2039</v>
@@ -2989,7 +2989,7 @@
         <v>7471</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J7" s="18">
         <v>1768</v>
@@ -3021,7 +3021,7 @@
         <v>58165</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J8" s="18">
         <v>1617</v>
@@ -3104,7 +3104,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -3164,7 +3164,7 @@
         <v>64297</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J15" s="18">
         <v>1923</v>
@@ -3196,7 +3196,7 @@
         <v>82571</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J16" s="18">
         <v>1704</v>
@@ -3228,7 +3228,7 @@
         <v>64092</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J17" s="18">
         <v>1503</v>
@@ -3260,7 +3260,7 @@
         <v>63037</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J18" s="18">
         <v>1363</v>
@@ -3311,7 +3311,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>110</v>
+        <v>238</v>
       </c>
       <c r="J21" s="1"/>
       <c r="L21" s="69" t="s">
@@ -3375,7 +3375,7 @@
         <v>25836</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J23" s="18">
         <v>1846</v>
@@ -3407,7 +3407,7 @@
         <v>29122</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J24" s="18">
         <v>1833</v>
@@ -3471,7 +3471,7 @@
         <v>47040</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J26" s="18">
         <v>1763</v>
@@ -3646,7 +3646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3685,7 +3685,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3924,7 +3924,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3976,7 +3976,7 @@
         <v>74349</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="18">
         <v>2078</v>
@@ -4008,7 +4008,7 @@
         <v>65544</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="18">
         <v>1915</v>
@@ -4040,7 +4040,7 @@
         <v>25844</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="18">
         <v>1915</v>
@@ -4072,7 +4072,7 @@
         <v>63886</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="18">
         <v>1763</v>
@@ -4131,7 +4131,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -4183,7 +4183,7 @@
         <v>52060</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="18">
         <v>1882</v>
@@ -4215,7 +4215,7 @@
         <v>80748</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" s="18">
         <v>1861</v>
@@ -4247,7 +4247,7 @@
         <v>21351</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="18">
         <v>1859</v>
@@ -4279,7 +4279,7 @@
         <v>43893</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="18">
         <v>1329</v>
@@ -4472,7 +4472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ280"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4581,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>37</v>
@@ -4732,7 +4734,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C5" s="41">
         <v>2</v>
@@ -4883,7 +4885,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6" s="41">
         <v>2</v>
@@ -5034,7 +5036,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C7" s="41">
         <v>1.5</v>
@@ -5185,7 +5187,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" s="41">
         <v>1.5</v>
@@ -5336,7 +5338,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C9" s="41">
         <v>1</v>
@@ -5487,7 +5489,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C10" s="41">
         <v>2.5</v>
@@ -5638,7 +5640,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C11" s="41">
         <v>1</v>
@@ -5940,7 +5942,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C13" s="41">
         <v>1</v>
@@ -6091,7 +6093,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C14" s="41">
         <v>0.5</v>
@@ -6242,7 +6244,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="C15" s="46">
         <v>0.5</v>
@@ -6285,7 +6287,7 @@
         <v>13</v>
       </c>
       <c r="P15" s="49">
-        <f t="shared" ref="P5:P15" si="4">SUM(S15:AD15)</f>
+        <f t="shared" ref="P15" si="4">SUM(S15:AD15)</f>
         <v>2</v>
       </c>
       <c r="Q15" s="49">
@@ -6487,7 +6489,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>37</v>
@@ -6638,7 +6640,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C19" s="41">
         <v>1.5</v>
@@ -6789,7 +6791,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C20" s="41">
         <v>2</v>
@@ -6940,7 +6942,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C21" s="41">
         <v>1.5</v>
@@ -7091,7 +7093,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C22" s="41">
         <v>2</v>
@@ -7242,7 +7244,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C23" s="41">
         <v>1</v>
@@ -7393,7 +7395,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C24" s="41">
         <v>1.5</v>
@@ -7544,7 +7546,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C25" s="41">
         <v>1</v>
@@ -7695,7 +7697,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C26" s="41">
         <v>1</v>
@@ -7997,7 +7999,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C28" s="41">
         <v>0</v>
@@ -8148,7 +8150,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" s="46">
         <v>2</v>
@@ -8191,7 +8193,7 @@
         <v>15.5</v>
       </c>
       <c r="P29" s="49">
-        <f t="shared" ref="P19:P29" si="20">SUM(S29:AD29)</f>
+        <f t="shared" ref="P29" si="20">SUM(S29:AD29)</f>
         <v>2.5</v>
       </c>
       <c r="Q29" s="49">
@@ -8393,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>37</v>
@@ -8544,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C33" s="41">
         <v>1.5</v>
@@ -8846,7 +8848,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C35" s="41">
         <v>2</v>
@@ -8997,7 +8999,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C36" s="41">
         <v>1.5</v>
@@ -9148,7 +9150,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C37" s="41">
         <v>1</v>
@@ -9299,7 +9301,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C38" s="41">
         <v>1.5</v>
@@ -9450,7 +9452,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C39" s="41">
         <v>1.5</v>
@@ -9601,7 +9603,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C40" s="41">
         <v>0.5</v>
@@ -9752,7 +9754,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>110</v>
+        <v>238</v>
       </c>
       <c r="C41" s="41">
         <v>2</v>
@@ -9903,7 +9905,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C42" s="41">
         <v>0.5</v>
@@ -10054,7 +10056,7 @@
         <v>12</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C43" s="46">
         <v>1</v>
@@ -14998,7 +15000,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -15058,7 +15060,7 @@
         <v>25186</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J5" s="18">
         <v>2110</v>
@@ -15154,7 +15156,7 @@
         <v>25917</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J8" s="18">
         <v>1479</v>
@@ -15237,7 +15239,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -15297,7 +15299,7 @@
         <v>87068</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J15" s="18">
         <v>1879</v>
@@ -15329,7 +15331,7 @@
         <v>19933</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J16" s="18">
         <v>1864</v>
@@ -15361,7 +15363,7 @@
         <v>71242</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J17" s="18">
         <v>1726</v>
@@ -15393,7 +15395,7 @@
         <v>90492</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J18" s="18">
         <v>1512</v>
@@ -15434,7 +15436,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -15518,7 +15520,7 @@
         <v>10821</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D24" s="18">
         <v>1958</v>
@@ -15550,7 +15552,7 @@
         <v>32999</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D25" s="18">
         <v>1693</v>
@@ -15582,7 +15584,7 @@
         <v>56782</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D26" s="18">
         <v>1604</v>
@@ -15824,7 +15826,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -15884,7 +15886,7 @@
         <v>49778</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J5" s="18">
         <v>1904</v>
@@ -15916,7 +15918,7 @@
         <v>94404</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J6" s="18">
         <v>1930</v>
@@ -15948,7 +15950,7 @@
         <v>56294</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J7" s="18">
         <v>1886</v>
@@ -15980,7 +15982,7 @@
         <v>57789</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J8" s="18">
         <v>1815</v>
@@ -16063,7 +16065,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -16155,7 +16157,7 @@
         <v>67440</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J16" s="18">
         <v>1983</v>
@@ -16187,7 +16189,7 @@
         <v>69311</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J17" s="18">
         <v>1982</v>
@@ -16219,7 +16221,7 @@
         <v>55841</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J18" s="18">
         <v>1400</v>
@@ -16270,7 +16272,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -16640,7 +16642,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -16692,7 +16694,7 @@
         <v>96474</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D5" s="18">
         <v>1878</v>
@@ -16716,7 +16718,7 @@
         <v>1827</v>
       </c>
       <c r="L5" s="68" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M5" s="68"/>
       <c r="N5" s="68"/>
@@ -16729,7 +16731,7 @@
         <v>11037</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D6" s="18">
         <v>1839</v>
@@ -16761,7 +16763,7 @@
         <v>40746</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D7" s="18">
         <v>1804</v>
@@ -16793,7 +16795,7 @@
         <v>12581</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D8" s="18">
         <v>1791</v>
@@ -16884,7 +16886,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -16936,7 +16938,7 @@
         <v>61948</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D15" s="18">
         <v>1747</v>
@@ -16968,7 +16970,7 @@
         <v>94099</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D16" s="18">
         <v>1732</v>
@@ -17000,7 +17002,7 @@
         <v>90638</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D17" s="18">
         <v>1529</v>
@@ -17032,7 +17034,7 @@
         <v>59951</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D18" s="18">
         <v>1592</v>
@@ -17091,7 +17093,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -17143,7 +17145,7 @@
         <v>876</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D23" s="18">
         <v>2065</v>
@@ -17175,7 +17177,7 @@
         <v>65978</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D24" s="18">
         <v>1971</v>
@@ -17207,7 +17209,7 @@
         <v>46680</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D25" s="18">
         <v>1907</v>
@@ -17481,7 +17483,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -17541,7 +17543,7 @@
         <v>45012</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J5" s="18">
         <v>1824</v>
@@ -17573,7 +17575,7 @@
         <v>44458</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J6" s="18">
         <v>1804</v>
@@ -17720,7 +17722,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -17780,7 +17782,7 @@
         <v>82007</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J15" s="18">
         <v>1831</v>
@@ -17844,7 +17846,7 @@
         <v>396</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J17" s="18">
         <v>1827</v>
@@ -17876,7 +17878,7 @@
         <v>95966</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J18" s="18">
         <v>1708</v>
@@ -17927,7 +17929,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -17987,7 +17989,7 @@
         <v>59811</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J23" s="18">
         <v>1906</v>
@@ -18019,7 +18021,7 @@
         <v>93335</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J24" s="18">
         <v>1841</v>
@@ -18051,7 +18053,7 @@
         <v>89681</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J25" s="18">
         <v>1820</v>
@@ -18083,7 +18085,7 @@
         <v>93360</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J26" s="18">
         <v>1791</v>
@@ -18297,7 +18299,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -18349,7 +18351,7 @@
         <v>2364</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D5" s="18">
         <v>1872</v>
@@ -18381,7 +18383,7 @@
         <v>24597</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D6" s="18">
         <v>1863</v>
@@ -18413,7 +18415,7 @@
         <v>23281</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D7" s="18">
         <v>1818</v>
@@ -18445,7 +18447,7 @@
         <v>18589</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>79</v>
@@ -18536,7 +18538,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -18588,7 +18590,7 @@
         <v>84735</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D15" s="18">
         <v>1854</v>
@@ -18620,7 +18622,7 @@
         <v>89389</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D16" s="18">
         <v>1707</v>
@@ -18652,7 +18654,7 @@
         <v>79596</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D17" s="18">
         <v>1642</v>
@@ -18684,7 +18686,7 @@
         <v>74161</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D18" s="18">
         <v>1665</v>
@@ -18743,7 +18745,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -18795,7 +18797,7 @@
         <v>38113</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D23" s="18">
         <v>1878</v>
@@ -18827,7 +18829,7 @@
         <v>29467</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D24" s="18">
         <v>1870</v>
@@ -18859,7 +18861,7 @@
         <v>11886</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D25" s="18">
         <v>1842</v>
@@ -18891,7 +18893,7 @@
         <v>45896</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D26" s="18">
         <v>1784</v>
@@ -19133,7 +19135,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -19289,7 +19291,7 @@
         <v>51578</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J8" s="18">
         <v>1620</v>
@@ -19372,7 +19374,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -19432,7 +19434,7 @@
         <v>92916</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J15" s="18">
         <v>1871</v>
@@ -19464,7 +19466,7 @@
         <v>73865</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J16" s="18">
         <v>1676</v>
@@ -19496,7 +19498,7 @@
         <v>78166</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J17" s="18">
         <v>1598</v>
@@ -19528,7 +19530,7 @@
         <v>66621</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>79</v>
@@ -19579,7 +19581,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -19639,7 +19641,7 @@
         <v>4707</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J23" s="18">
         <v>1871</v>
@@ -19703,7 +19705,7 @@
         <v>54500</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J25" s="18">
         <v>1847</v>
@@ -19735,7 +19737,7 @@
         <v>3174</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J26" s="18">
         <v>1791</v>
@@ -19949,7 +19951,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -20001,7 +20003,7 @@
         <v>45632</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="18">
         <v>1921</v>
@@ -20033,7 +20035,7 @@
         <v>3646</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>79</v>
@@ -20065,7 +20067,7 @@
         <v>3824</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>79</v>
@@ -20097,7 +20099,7 @@
         <v>48062</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D8" s="18">
         <v>1825</v>
@@ -20188,7 +20190,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -20240,7 +20242,7 @@
         <v>72443</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D15" s="18">
         <v>1886</v>
@@ -20272,7 +20274,7 @@
         <v>91201</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D16" s="18">
         <v>1861</v>
@@ -20304,7 +20306,7 @@
         <v>60569</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D17" s="18">
         <v>1818</v>
@@ -20336,7 +20338,7 @@
         <v>75990</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D18" s="18">
         <v>1810</v>
@@ -20395,7 +20397,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -20447,7 +20449,7 @@
         <v>36374</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D23" s="18">
         <v>1884</v>
@@ -20479,7 +20481,7 @@
         <v>43311</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D24" s="18">
         <v>1692</v>
@@ -20511,7 +20513,7 @@
         <v>47341</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D25" s="18">
         <v>1783</v>
@@ -20543,7 +20545,7 @@
         <v>43176</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D26" s="18">
         <v>1666</v>
@@ -20785,7 +20787,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -20845,7 +20847,7 @@
         <v>45888</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J5" s="18">
         <v>2053</v>
@@ -20909,7 +20911,7 @@
         <v>26719</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J7" s="18">
         <v>1761</v>
@@ -20941,7 +20943,7 @@
         <v>26808</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J8" s="18">
         <v>1723</v>
@@ -21024,7 +21026,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -21084,7 +21086,7 @@
         <v>85774</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J15" s="18">
         <v>1918</v>
@@ -21116,7 +21118,7 @@
         <v>85472</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J16" s="18">
         <v>1719</v>
@@ -21148,7 +21150,7 @@
         <v>90981</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J17" s="18">
         <v>1642</v>
@@ -21180,7 +21182,7 @@
         <v>66206</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J18" s="18">
         <v>1193</v>
@@ -21231,7 +21233,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -21291,7 +21293,7 @@
         <v>35360</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J23" s="18">
         <v>1839</v>
@@ -21323,7 +21325,7 @@
         <v>23434</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J24" s="18">
         <v>1882</v>
@@ -21355,7 +21357,7 @@
         <v>16021</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J25" s="18">
         <v>1894</v>
@@ -21387,7 +21389,7 @@
         <v>35521</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J26" s="18">
         <v>1742</v>
